--- a/A2_results_step1.5_twoprice.xlsx
+++ b/A2_results_step1.5_twoprice.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>304803.19231250003</v>
+        <v>426088.4558750001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>312810.160875</v>
+        <v>431630.1995000001</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>313140.6339375</v>
+        <v>431654.4178750001</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>302720.0295625</v>
+        <v>424226.6078125001</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>302416.11562500003</v>
+        <v>423936.58812500007</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>302889.502625</v>
+        <v>424237.10725000006</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>303521.056875</v>
+        <v>425041.02100000007</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>303167.106875</v>
+        <v>424692.39631250006</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>303679.4903125</v>
+        <v>425049.47187500005</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>305497.4048125</v>
+        <v>426455.36187500006</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>305109.5703125</v>
+        <v>426065.94818750006</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>303817.6150625</v>
+        <v>425083.2250000001</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>304453.94443750003</v>
+        <v>425558.78200000006</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>293216.16356250003</v>
+        <v>417436.7046875001</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>292791.0000625</v>
+        <v>417041.2265000001</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>293185.47993750003</v>
+        <v>417401.4497500001</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>308007.009</v>
+        <v>428508.0296875001</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>308298.2265</v>
+        <v>428608.55075000005</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>304938.2543125</v>
+        <v>426174.5858750001</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>304557.3998125</v>
+        <v>425801.77062500006</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>314585.9418125</v>
+        <v>433185.42112500005</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>314141.371125</v>
+        <v>432720.98118750006</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>314930.6261875</v>
+        <v>433240.0257500001</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>312251.67675</v>
+        <v>431562.4521875001</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>311816.8698125</v>
+        <v>431097.6393750001</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>312563.6665</v>
+        <v>431614.5398750001</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>316712.1734375</v>
+        <v>434921.3564375001</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>317039.55975</v>
+        <v>434974.2970000001</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>317412.369625</v>
+        <v>435568.1575625001</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>317745.906625</v>
+        <v>435608.5052500001</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>308234.4221875</v>
+        <v>428471.9450625001</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>308518.7128125</v>
+        <v>428507.34550000005</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>326103.17881250003</v>
+        <v>441852.7081875001</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>325449.849375</v>
+        <v>441178.1348750001</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>326572.5603125</v>
+        <v>441928.98012500006</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>329423.696875</v>
+        <v>444484.1972500001</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>339305.064375</v>
+        <v>451394.5235625001</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>338521.7675625</v>
+        <v>450530.61112500005</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>340011.80843750003</v>
+        <v>451503.08450000006</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>314734.309125</v>
+        <v>433492.59981250006</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>314519.34606250003</v>
+        <v>433225.96162500005</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>315183.18312500004</v>
+        <v>433635.9341250001</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>316654.021</v>
+        <v>437397.1220625001</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>315904.391125</v>
+        <v>436724.87962500006</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>317078.0948125</v>
+        <v>437733.8607500001</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>332648.031375</v>
+        <v>450629.3337500001</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>331547.275875</v>
+        <v>449647.2001250001</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>313426.13225</v>
+        <v>434575.59412500006</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>314572.60325000004</v>
+        <v>435549.1972500001</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>315152.3598125</v>
+        <v>436212.15268750006</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>315578.39875</v>
+        <v>436550.9596875001</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>319315.5638125</v>
+        <v>439793.19212500006</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>318501.884875</v>
+        <v>439043.4333750001</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>315658.853125</v>
+        <v>436549.97306250007</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>317015.73375</v>
+        <v>437746.08131250006</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>297707.2410625</v>
+        <v>421894.0431250001</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>322157.0086875</v>
+        <v>442163.0843750001</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>321250.2654375</v>
+        <v>441309.7863125001</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>316590.7508125</v>
+        <v>437461.3461250001</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>315760.76512500003</v>
+        <v>436689.2728125001</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>317007.95581250003</v>
+        <v>437774.51668750006</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>334146.95625000005</v>
+        <v>452022.6080625001</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>334965.8365625</v>
+        <v>452650.1123750001</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>330475.277625</v>
+        <v>449064.35681250005</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>329480.8405625</v>
+        <v>448138.32700000005</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>331228.19656250003</v>
+        <v>449655.7868125001</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>337416.3481875</v>
+        <v>454790.1499375001</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>336203.4474375</v>
+        <v>453681.9593750001</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>338163.0153125</v>
+        <v>455568.8095000001</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>336997.517375</v>
+        <v>454488.06356250006</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>323947.7880625</v>
+        <v>443637.89593750006</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>323200.799875</v>
+        <v>442951.78381250007</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>324667.42668750003</v>
+        <v>444183.2918750001</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>331307.2964375</v>
+        <v>449759.45562500006</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>332194.15856250003</v>
+        <v>450433.89737500006</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>353059.5781875</v>
+        <v>467752.6950625001</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>351529.00825</v>
+        <v>466344.9375000001</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>354177.7213125</v>
+        <v>468621.78487500007</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>358898.28337500006</v>
+        <v>472742.0187500001</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>378438.928625</v>
+        <v>488901.7903125001</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>334896.495</v>
+        <v>452784.58943750005</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>334109.50675</v>
+        <v>452064.58918750007</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>404981.54406250006</v>
+        <v>511120.0158750001</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>303572.27175</v>
+        <v>425056.75000000006</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>303727.756</v>
+        <v>425128.2743125001</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>312067.4954375</v>
+        <v>431237.8240625001</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>311520.181125</v>
+        <v>430712.0876250001</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>302268.132875</v>
+        <v>424081.3933125001</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>301902.36843750003</v>
+        <v>423724.5502500001</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>302462.68343750003</v>
+        <v>424154.6628125001</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>302715.4230625</v>
+        <v>424447.83031250007</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>302279.16112500004</v>
+        <v>424028.67431250005</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>304925.45725000004</v>
+        <v>426141.0856875001</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>304449.8636875</v>
+        <v>425679.5328125001</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>305158.0713125</v>
+        <v>426253.42868750007</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>304663.4393125</v>
+        <v>426085.83243750007</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>304090.8975</v>
+        <v>425541.3940625001</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>304831.9491875</v>
+        <v>426159.4235000001</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>293849.32550000004</v>
+        <v>418209.3823750001</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>307643.36206250003</v>
+        <v>428388.4675000001</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>307096.517875</v>
+        <v>427839.8820000001</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>303329.2156875</v>
+        <v>424969.9779375001</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>303480.465</v>
+        <v>425033.1087500001</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>313516.348875</v>
+        <v>432568.2335625001</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>312931.84425</v>
+        <v>431975.5364375001</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>313897.064</v>
+        <v>432755.49856250006</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>310816.6686875</v>
+        <v>430382.44062500005</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>315200.10818750004</v>
+        <v>433803.2789375001</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>314511.4993125</v>
+        <v>433127.7122500001</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>315535.98</v>
+        <v>433974.9216250001</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>315632.3565625</v>
+        <v>434166.1323750001</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>314907.9998125</v>
+        <v>433460.34912500007</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>306229.368625</v>
+        <v>426942.3148750001</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>305780.32375000004</v>
+        <v>426499.81606250006</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>310534.639</v>
+        <v>430134.1860000001</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>310145.6175</v>
+        <v>429726.1946875001</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>310926.5125</v>
+        <v>430344.5449375001</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>324295.13375000004</v>
+        <v>440571.3143750001</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>323427.1529375</v>
+        <v>439715.58693750005</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>326676.915875</v>
+        <v>442069.4863750001</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>337895.29812500003</v>
+        <v>450324.8067500001</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>336860.608</v>
+        <v>449298.7577500001</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>338634.504625</v>
+        <v>450712.1288125001</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>312691.16856250004</v>
+        <v>431597.2215000001</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>312233.15075000003</v>
+        <v>431139.3351875001</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>353419.7170625</v>
+        <v>461978.6064375001</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>351913.99125</v>
+        <v>460563.2413125001</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>354276.42275</v>
+        <v>462431.0428750001</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>296441.9258125</v>
+        <v>419957.3094375001</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>296782.6300625</v>
+        <v>420345.0573750001</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>302713.54775</v>
+        <v>424522.3670000001</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>303279.095125</v>
+        <v>425087.5803750001</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>296344.02025</v>
+        <v>419660.87175000005</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>296040.6999375</v>
+        <v>419508.5036875001</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>296386.7093125</v>
+        <v>419882.2811250001</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>297580.7474375</v>
+        <v>420845.17406250007</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>297326.053875</v>
+        <v>420506.41650000005</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>297741.1275</v>
+        <v>420949.92725000007</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>297789.3376875</v>
+        <v>420871.6327500001</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>290121.5278125</v>
+        <v>415010.91375000007</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>290336.45575</v>
+        <v>415226.94287500007</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>299252.17668750003</v>
+        <v>421991.8584375001</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>298952.738</v>
+        <v>421588.1028125001</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>299434.60525</v>
+        <v>422098.57850000006</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>296205.441125</v>
+        <v>419823.97193750006</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>295947.075625</v>
+        <v>419483.7857500001</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>303274.553</v>
+        <v>425103.25325000007</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>301395.67137500003</v>
+        <v>423750.1262500001</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>303861.494</v>
+        <v>425619.87106250005</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>304080.64862500003</v>
+        <v>425759.1155000001</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>303510.2958125</v>
+        <v>425477.0352500001</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>303138.572125</v>
+        <v>424952.1405000001</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>303746.3159375</v>
+        <v>425646.4828750001</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>297935.48575</v>
+        <v>421422.6180000001</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>300859.3369375</v>
+        <v>423429.64456250006</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>300605.7373125</v>
+        <v>423039.6577500001</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>309259.5685625</v>
+        <v>429497.0605625001</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>310056.9694375</v>
+        <v>430376.6202500001</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>311308.34375</v>
+        <v>431314.2003750001</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>310810.93593750003</v>
+        <v>430587.18675000005</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>311652.37312500004</v>
+        <v>431524.44250000006</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>318304.706</v>
+        <v>436548.56362500007</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>317714.8644375</v>
+        <v>435676.56006250007</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>318776.8271875</v>
+        <v>436840.93250000005</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>301773.3455</v>
+        <v>423891.03481250006</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>301491.07587500004</v>
+        <v>423434.9977500001</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>328547.86106250004</v>
+        <v>444772.47975000006</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>327707.18806250003</v>
+        <v>443558.1195625001</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>329126.336</v>
+        <v>445024.69500000007</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>293204.47006250004</v>
+        <v>420336.3660000001</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>293275.132125</v>
+        <v>420581.35162500007</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>297197.98325</v>
+        <v>424777.2298750001</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>297316.51175</v>
+        <v>425221.6781250001</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>292892.2971875</v>
+        <v>420077.72162500006</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>292928.735125</v>
+        <v>420158.7672500001</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>292654.063</v>
+        <v>419885.3123750001</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>292620.22462500003</v>
+        <v>419711.6990625001</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>292691.5218125</v>
+        <v>419934.6581250001</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>293101.77175</v>
+        <v>420516.8502500001</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>293063.57837500004</v>
+        <v>420357.44462500006</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>293148.1848125</v>
+        <v>420629.95000000007</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>292828.90293750004</v>
+        <v>420361.11475000007</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>292908.961625</v>
+        <v>420586.71775000007</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>287549.4031875</v>
+        <v>414770.3765000001</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>287521.172875</v>
+        <v>414690.2058125001</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>287562.251375</v>
+        <v>414725.7825000001</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>293859.80875</v>
+        <v>421334.3326250001</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>292327.2621875</v>
+        <v>419703.13712500007</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>292377.302625</v>
+        <v>419771.22662500007</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>296890.08793750004</v>
+        <v>424863.6393750001</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>296955.4355</v>
+        <v>425036.7332500001</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>295536.4381875</v>
+        <v>423462.96837500005</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>295487.096</v>
+        <v>423273.7850625001</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>297276.85712500004</v>
+        <v>425451.3748750001</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>297343.86843750003</v>
+        <v>425547.2800000001</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>296870.9136875</v>
+        <v>425040.65450000006</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>296820.7883125</v>
+        <v>424799.18850000005</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>293643.7166875</v>
+        <v>421144.8758750001</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>293713.1488125</v>
+        <v>421294.7790000001</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>295552.174125</v>
+        <v>423030.4486875001</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>295660.31768750004</v>
+        <v>423389.2172500001</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>301168.4175625</v>
+        <v>429833.3485000001</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>301096.47175</v>
+        <v>429510.1287500001</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>302005.56375000003</v>
+        <v>430892.58525000006</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>301928.45775</v>
+        <v>430570.5111875001</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>306636.7259375</v>
+        <v>436251.1546250001</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>306533.0135</v>
+        <v>435866.7946250001</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>295345.15925</v>
+        <v>423509.9663750001</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>313382.34425</v>
+        <v>444329.98225000006</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>291855.691375</v>
+        <v>422052.7726250001</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>291781.19412500004</v>
+        <v>421421.59912500007</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>291739.144125</v>
+        <v>421234.5993750001</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>291728.571375</v>
+        <v>421569.76237500005</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>291434.59500000003</v>
+        <v>421204.2093750001</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>291383.940125</v>
+        <v>421328.0183750001</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>291555.275625</v>
+        <v>421825.3507500001</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>291791.4975</v>
+        <v>421701.6670000001</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>291755.186375</v>
+        <v>421508.0040000001</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>287228.484875</v>
+        <v>415086.1262500001</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>287209.20012500003</v>
+        <v>415055.9553750001</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>292451.60225</v>
+        <v>423057.6677500001</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>292416.13275</v>
+        <v>422915.30787500006</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>290844.245125</v>
+        <v>421059.8431250001</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>290810.97287500004</v>
+        <v>420910.74612500006</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>294779.147</v>
+        <v>427104.1100000001</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>294722.454</v>
+        <v>426889.7480000001</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>293574.05225</v>
+        <v>425406.2275000001</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>293525.3005</v>
+        <v>425220.66125000006</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>295054.13275</v>
+        <v>427748.64062500006</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>294987.013125</v>
+        <v>427472.1006250001</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>294964.45012500003</v>
+        <v>427980.0182500001</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>294319.16875</v>
+        <v>427045.5736250001</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>294296.152</v>
+        <v>427573.8957500001</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>291565.07725000003</v>
+        <v>422786.1703750001</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>291551.09575000004</v>
+        <v>423242.4263750001</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>293224.30775000004</v>
+        <v>425238.1488750001</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>298211.487</v>
+        <v>432868.17012500006</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>298101.37200000003</v>
+        <v>433256.1617500001</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>298731.3985</v>
+        <v>434105.85187500005</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>298650.625625</v>
+        <v>433799.84062500007</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>302566.69025</v>
+        <v>440373.75600000005</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>302460.433875</v>
+        <v>439985.1133750001</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>293057.45525</v>
+        <v>426007.3986250001</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>292977.57575</v>
+        <v>426301.2722500001</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>308192.63800000004</v>
+        <v>448403.5616250001</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>308145.2245</v>
+        <v>449704.0171250001</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>296631.67387500004</v>
+        <v>422629.1503750001</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>296667.936125</v>
+        <v>422492.6760000001</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>296783.741125</v>
+        <v>422576.4115000001</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>301775.197125</v>
+        <v>427666.0734375001</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>301821.78125</v>
+        <v>427492.89350000006</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>295610.6869375</v>
+        <v>421581.69775000005</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>295722.64300000004</v>
+        <v>421696.29362500005</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>295672.3101875</v>
+        <v>421775.0783125001</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>295696.6761875</v>
+        <v>421659.66937500006</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>295811.87912500004</v>
+        <v>421748.35293750005</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>296529.23781250004</v>
+        <v>422573.0364375001</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>296554.2174375</v>
+        <v>422476.8038125001</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>296689.212</v>
+        <v>422583.1794375001</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>288210.1705625</v>
+        <v>415211.9966875001</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>297277.03175</v>
+        <v>423622.6620625001</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>295896.8284375</v>
+        <v>421863.96737500007</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>295934.4259375</v>
+        <v>421766.29862500005</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>296060.03375</v>
+        <v>421822.78975000005</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>301792.2365625</v>
+        <v>427803.24356250005</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>300125.8338125</v>
+        <v>426262.1721250001</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>300179.9113125</v>
+        <v>426176.4085000001</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>300351.8545</v>
+        <v>426269.0386250001</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>302649.988625</v>
+        <v>428800.7047500001</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>302715.58375</v>
+        <v>428648.2143750001</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>302906.733</v>
+        <v>428766.7953125001</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>302710.0488125</v>
+        <v>428629.76925000007</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>302777.4035</v>
+        <v>428505.7833125001</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>302971.856875</v>
+        <v>428613.3137500001</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>298497.7645625</v>
+        <v>423879.0343750001</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>298571.25800000003</v>
+        <v>423795.20000000007</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>308490.95</v>
+        <v>434025.25100000005</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>309663.49675</v>
+        <v>435654.7591250001</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>310033.763875</v>
+        <v>435669.4619375001</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>316141.62025000004</v>
+        <v>441741.59025000007</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>316519.955625</v>
+        <v>442008.2543750001</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>300996.07268750004</v>
+        <v>427393.17650000006</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>301284.70650000003</v>
+        <v>427442.4135000001</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>324412.0369375</v>
+        <v>450354.0198125001</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>304924.73975</v>
+        <v>425880.07600000006</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>305490.57093750004</v>
+        <v>426281.18462500005</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>314988.069125</v>
+        <v>433217.7966250001</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>303680.791</v>
+        <v>424866.9296250001</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>303433.42743750004</v>
+        <v>424677.15662500006</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>303774.4909375</v>
+        <v>425023.49187500007</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>306462.60500000004</v>
+        <v>427079.8563125001</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>306180.9599375</v>
+        <v>426843.09193750005</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>306860.67575</v>
+        <v>427329.7248750001</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>304471.98287500005</v>
+        <v>425454.8801250001</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>292439.67812500003</v>
+        <v>416699.7540625001</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>308013.1805625</v>
+        <v>428172.64850000007</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>308442.19075</v>
+        <v>428457.53762500006</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>304614.8424375</v>
+        <v>425645.2196250001</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>304340.3089375</v>
+        <v>425406.81006250007</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>315526.8725</v>
+        <v>433621.8460000001</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>313315.3206875</v>
+        <v>432085.20275000005</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>312979.21225</v>
+        <v>431792.84662500006</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>313844.927625</v>
+        <v>432428.66581250005</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>317171.0853125</v>
+        <v>434842.1966875001</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>318148.6266875</v>
+        <v>435554.4977500001</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>309500.549875</v>
+        <v>429343.4725000001</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>314396.0841875</v>
+        <v>432968.4995000001</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>314164.326125</v>
+        <v>432771.00606250006</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>315004.9276875</v>
+        <v>433348.5240625001</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>327562.92206250003</v>
+        <v>442520.5339375001</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>327051.401375</v>
+        <v>442095.75812500005</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>328356.18168750004</v>
+        <v>443028.6727500001</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>331016.53725</v>
+        <v>445156.65800000005</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>330493.48225</v>
+        <v>444705.8060000001</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>343426.83081250003</v>
+        <v>454211.3930000001</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>342799.37412500003</v>
+        <v>453681.2611875001</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>344604.23243750003</v>
+        <v>454968.5520000001</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>316209.629</v>
+        <v>434088.5194375001</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>358727.83175</v>
+        <v>465511.0811250001</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>361083.101</v>
+        <v>467192.41587500006</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>307167.0934375</v>
+        <v>428443.0198125001</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>307069.6938125</v>
+        <v>428507.1379375001</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>317480.58193750004</v>
+        <v>436144.5483750001</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>317303.3083125</v>
+        <v>436193.68568750005</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>318093.438375</v>
+        <v>436565.5232500001</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>304922.83187500003</v>
+        <v>426401.6315000001</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>305394.9504375</v>
+        <v>427012.9870625001</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>307562.1443125</v>
+        <v>428693.8120000001</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>307968.2249375</v>
+        <v>428970.7299375001</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>304271.114625</v>
+        <v>425786.6180000001</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>304055.5225</v>
+        <v>425760.7111875001</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>304541.6711875</v>
+        <v>425975.07812500006</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>291183.09718750004</v>
+        <v>415794.0651250001</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>308248.6815</v>
+        <v>429172.40375000006</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>308138.250625</v>
+        <v>429260.30962500005</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>308680.8050625</v>
+        <v>429481.3233750001</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>306006.7106875</v>
+        <v>427515.8663125001</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>305888.8524375</v>
+        <v>427556.74575000006</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>306363.80881250004</v>
+        <v>427768.93000000005</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>317218.3349375</v>
+        <v>436400.87500000006</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>317942.8373125</v>
+        <v>436687.7050000001</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>314859.01225</v>
+        <v>434494.41550000006</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>315405.7066875</v>
+        <v>434879.6210000001</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>319734.83775</v>
+        <v>438180.3820000001</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>319579.32050000003</v>
+        <v>438298.7974375001</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>320222.7238125</v>
+        <v>438979.1912500001</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>320992.842125</v>
+        <v>439301.01450000005</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>312483.4788125</v>
+        <v>432837.7079375001</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>312438.0501875</v>
+        <v>432958.0166250001</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>313081.18987500004</v>
+        <v>433261.1763125001</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>317146.27581250004</v>
+        <v>436555.2690625001</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>317800.03468750004</v>
+        <v>436996.60756250005</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>330245.561125</v>
+        <v>446304.55831250007</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>330054.876125</v>
+        <v>446452.3510000001</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>347151.6391875</v>
+        <v>460088.07212500006</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>364398.886875</v>
+        <v>472789.4999375001</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>363884.7156875</v>
+        <v>472896.4936875001</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>365803.15475</v>
+        <v>473785.3970000001</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>310275.27968750003</v>
+        <v>431018.38075000007</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>310583.35825</v>
+        <v>431239.1241875001</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>322229.967375</v>
+        <v>440211.2697500001</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>322827.7394375</v>
+        <v>440617.1602500001</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>307987.452</v>
+        <v>429064.4390000001</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>308309.0730625</v>
+        <v>429285.6670625001</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>308365.2585</v>
+        <v>429493.1273125001</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>309211.854375</v>
+        <v>430184.4153125001</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>311967.2436875</v>
+        <v>432444.8720000001</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>312377.123125</v>
+        <v>432725.58875000005</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>310038.495</v>
+        <v>430850.9390000001</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>309340.795375</v>
+        <v>430231.9153125001</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>310316.71025</v>
+        <v>431047.0578125001</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>295521.0050625</v>
+        <v>419673.55050000007</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>314301.87575</v>
+        <v>434307.9514375001</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>313647.1026875</v>
+        <v>433706.62356250006</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>314756.185</v>
+        <v>434639.0567500001</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>309907.988</v>
+        <v>430778.5833125001</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>310203.4663125</v>
+        <v>430970.0271875001</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>322741.0835</v>
+        <v>440695.5698125001</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>320735.1780625</v>
+        <v>439324.2572500001</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>326158.21400000004</v>
+        <v>443532.0157500001</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>326735.20262500003</v>
+        <v>443948.4742500001</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>326868.3579375</v>
+        <v>444274.1521250001</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>326019.1001875</v>
+        <v>443509.64637500007</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>327486.47431250004</v>
+        <v>444701.3510625001</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>315622.8281875</v>
+        <v>435312.93606250006</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>316159.27931250003</v>
+        <v>435675.14450000005</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>321150.06625000003</v>
+        <v>439602.22543750005</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>320655.9056875</v>
+        <v>439158.7280625001</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>321817.6308125</v>
+        <v>440057.36962500005</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>338430.917</v>
+        <v>453124.0338750001</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>339251.808625</v>
+        <v>453695.87218750006</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>343046.8319375</v>
+        <v>456890.5673125001</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>343935.6015625</v>
+        <v>457517.4438750001</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>358081.67600000004</v>
+        <v>468544.53768750007</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>356786.7415625</v>
+        <v>467390.7963750001</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>359354.09762500005</v>
+        <v>469440.58493750007</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>323585.3833125</v>
+        <v>441473.4777500001</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>323045.104125</v>
+        <v>441000.1865625001</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>324247.25518750004</v>
+        <v>441948.47306250007</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>380024.06450000004</v>
+        <v>485754.16550000006</v>
       </c>
     </row>
   </sheetData>
@@ -2550,76 +2550,76 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>5749.239000000002</v>
+        <v>24747.141562500015</v>
       </c>
       <c r="B2">
-        <v>3419.724375</v>
+        <v>3373.4503124999983</v>
       </c>
       <c r="C2">
-        <v>3296.149875</v>
+        <v>3269.525062500001</v>
       </c>
       <c r="D2">
-        <v>66867.11249999999</v>
+        <v>53563.80656250001</v>
       </c>
       <c r="E2">
-        <v>4254.5025</v>
+        <v>4181.298750000001</v>
       </c>
       <c r="F2">
-        <v>7656.392699999999</v>
+        <v>26656.723200000004</v>
       </c>
       <c r="G2">
-        <v>6632.542350000002</v>
+        <v>17598.704400000006</v>
       </c>
       <c r="H2">
-        <v>8175.527399999999</v>
+        <v>11942.788950000006</v>
       </c>
       <c r="I2">
         <v>0.0</v>
       </c>
       <c r="J2">
-        <v>5290.833600000001</v>
+        <v>28253.290724999995</v>
       </c>
       <c r="K2">
-        <v>1649.8919999999994</v>
+        <v>5639.683874999999</v>
       </c>
       <c r="L2">
-        <v>4570.5546</v>
+        <v>15749.94645</v>
       </c>
       <c r="M2">
-        <v>71629.39499999999</v>
+        <v>70338.61500000002</v>
       </c>
       <c r="N2">
-        <v>69435.38250000002</v>
+        <v>42316.16017499998</v>
       </c>
       <c r="O2">
-        <v>1415.7776999999999</v>
+        <v>14649.407324999998</v>
       </c>
       <c r="P2">
-        <v>2216.8847250000003</v>
+        <v>2874.14385</v>
       </c>
       <c r="Q2">
-        <v>8014.7313</v>
+        <v>17921.5659</v>
       </c>
       <c r="R2">
         <v>0.0</v>
       </c>
       <c r="S2">
-        <v>4203.6702</v>
+        <v>9317.394899999998</v>
       </c>
       <c r="T2">
-        <v>4119.509399999998</v>
+        <v>11254.551825000002</v>
       </c>
       <c r="U2">
-        <v>3827.1684</v>
+        <v>32294.783550000004</v>
       </c>
       <c r="V2">
         <v>0.0</v>
       </c>
       <c r="W2">
-        <v>1626.1412999999998</v>
+        <v>8880.043424999996</v>
       </c>
       <c r="X2">
-        <v>798.783075</v>
+        <v>6272.507699999998</v>
       </c>
     </row>
   </sheetData>
@@ -2642,122 +2642,122 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>29442.946301250035</v>
+        <v>42281.58524250001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>28618.124624999993</v>
+        <v>25683.907072500002</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>26859.236175</v>
+        <v>24004.147514999997</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>29272.839607499976</v>
+        <v>82770.8712</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>28261.116877499997</v>
+        <v>24898.2777675</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>31938.284579999963</v>
+        <v>43978.8026025</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>34311.14199</v>
+        <v>38779.12029750001</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>42121.11224249999</v>
+        <v>38122.354477500005</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>42042.79106999999</v>
+        <v>35035.65922500001</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>27453.528832500007</v>
+        <v>38991.59612624999</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>22270.863791250005</v>
+        <v>20481.1312425</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>17340.813359999986</v>
+        <v>25176.328803749995</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>22321.23609749999</v>
+        <v>125125.45822500001</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>22333.761742500013</v>
+        <v>68715.583275</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>16429.029738750003</v>
+        <v>23827.1031975</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>17958.74531625</v>
+        <v>16137.32648625</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>19809.1232775</v>
+        <v>30369.231026249996</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>28011.762134999997</v>
+        <v>23343.135112500007</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>31844.258100000006</v>
+        <v>29220.9621375</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>35429.33859749999</v>
+        <v>33150.925837500006</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>34560.705611249985</v>
+        <v>49976.8377525</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>40269.10572000001</v>
+        <v>33557.58809999998</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>34572.371456249995</v>
+        <v>32532.585408749997</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>32297.649153749997</v>
+        <v>29949.852675</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_twoprice.xlsx
+++ b/A2_results_step1.5_twoprice.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>426088.4558750001</v>
+        <v>419221.7296250001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>431630.1995000001</v>
+        <v>421236.6657500001</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>431654.4178750001</v>
+        <v>421413.3816250001</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>424226.6078125001</v>
+        <v>417338.64281250007</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>423936.58812500007</v>
+        <v>417126.7306250001</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>424237.10725000006</v>
+        <v>417427.2497500001</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>425041.02100000007</v>
+        <v>418831.0197500001</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>424692.39631250006</v>
+        <v>418566.06256250007</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>425049.47187500005</v>
+        <v>418923.13812500006</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>426455.36187500006</v>
+        <v>420199.9056250001</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>426065.94818750006</v>
+        <v>419897.8244375001</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>425083.2250000001</v>
+        <v>418829.18500000006</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>425558.78200000006</v>
+        <v>419304.7420000001</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>417436.7046875001</v>
+        <v>415895.1084375001</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>417041.2265000001</v>
+        <v>415512.9827500001</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>417401.4497500001</v>
+        <v>415873.20600000006</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>428508.0296875001</v>
+        <v>421482.5559375001</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>428608.55075000005</v>
+        <v>421673.0670000001</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>426174.5858750001</v>
+        <v>420934.7896250001</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>425801.77062500006</v>
+        <v>420628.47187500005</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>433185.42112500005</v>
+        <v>423625.2348750001</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>432720.98118750006</v>
+        <v>423292.3999375001</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>433240.0257500001</v>
+        <v>423811.4445000001</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>431562.4521875001</v>
+        <v>423424.1659375001</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>431097.6393750001</v>
+        <v>423090.57062500005</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>431614.5398750001</v>
+        <v>423607.4711250001</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>434921.3564375001</v>
+        <v>425382.16768750007</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>434974.2970000001</v>
+        <v>425586.99575000006</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>435568.1575625001</v>
+        <v>426922.2100625001</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>435608.5052500001</v>
+        <v>427098.9202500001</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>428471.9450625001</v>
+        <v>422220.11006250005</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>428507.34550000005</v>
+        <v>422355.04050000006</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>441852.7081875001</v>
+        <v>429225.5144375001</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>441178.1348750001</v>
+        <v>428743.0161250001</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>441928.98012500006</v>
+        <v>429493.8613750001</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>444484.1972500001</v>
+        <v>431503.8560000001</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>451394.5235625001</v>
+        <v>434527.6323125001</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>450530.61112500005</v>
+        <v>433959.46487500006</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>451503.08450000006</v>
+        <v>434931.93825000006</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>433492.59981250006</v>
+        <v>425809.04231250007</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>433225.96162500005</v>
+        <v>425700.6216250001</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>433635.9341250001</v>
+        <v>426110.59412500006</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>437397.1220625001</v>
+        <v>435696.7970625001</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>436724.87962500006</v>
+        <v>435024.5546250001</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>437733.8607500001</v>
+        <v>436033.5357500001</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>450629.3337500001</v>
+        <v>447976.4487500001</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>449647.2001250001</v>
+        <v>446994.3151250001</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>434575.59412500006</v>
+        <v>432758.0441250001</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>435549.1972500001</v>
+        <v>433731.6472500001</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>436212.15268750006</v>
+        <v>434730.2576875001</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>436550.9596875001</v>
+        <v>435069.06468750007</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>439793.19212500006</v>
+        <v>438315.88712500007</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>439043.4333750001</v>
+        <v>437566.1283750001</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>436549.97306250007</v>
+        <v>435080.6780625001</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>437746.08131250006</v>
+        <v>436276.7863125001</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>421894.0431250001</v>
+        <v>421692.89312500006</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>442163.0843750001</v>
+        <v>440506.1393750001</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>441309.7863125001</v>
+        <v>439652.84131250007</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>437461.3461250001</v>
+        <v>436309.2561250001</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>436689.2728125001</v>
+        <v>435537.18281250005</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>437774.51668750006</v>
+        <v>436622.4266875001</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>452022.6080625001</v>
+        <v>449613.2630625001</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>452650.1123750001</v>
+        <v>450240.76737500005</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>449064.35681250005</v>
+        <v>447186.3268125001</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>448138.32700000005</v>
+        <v>446260.2970000001</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>449655.7868125001</v>
+        <v>447777.75681250007</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>454790.1499375001</v>
+        <v>452579.88493750006</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>453681.9593750001</v>
+        <v>451471.6943750001</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>455568.8095000001</v>
+        <v>453632.9995000001</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>454488.06356250006</v>
+        <v>452552.25356250006</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>443637.89593750006</v>
+        <v>442182.6859375001</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>442951.78381250007</v>
+        <v>441496.5738125001</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>444183.2918750001</v>
+        <v>442728.0818750001</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>449759.45562500006</v>
+        <v>447710.65062500007</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>450433.89737500006</v>
+        <v>448385.09237500007</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>467752.6950625001</v>
+        <v>464740.80006250006</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>466344.9375000001</v>
+        <v>463333.0425000001</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>468621.78487500007</v>
+        <v>465609.8898750001</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>472742.0187500001</v>
+        <v>469781.4237500001</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>488901.7903125001</v>
+        <v>484990.1203125001</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>452784.58943750005</v>
+        <v>451043.89943750005</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>452064.58918750007</v>
+        <v>450323.89918750006</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>511120.0158750001</v>
+        <v>505830.4458750001</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>425056.75000000006</v>
+        <v>417659.1810000001</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>425128.2743125001</v>
+        <v>417726.2050625001</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>431237.8240625001</v>
+        <v>419802.6795625001</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>430712.0876250001</v>
+        <v>419406.3351250001</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>424081.3933125001</v>
+        <v>416392.4515625001</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>423724.5502500001</v>
+        <v>416120.3465000001</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>424154.6628125001</v>
+        <v>416493.5718125001</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>424447.83031250007</v>
+        <v>417765.1215625001</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>424028.67431250005</v>
+        <v>417413.9255625001</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>426141.0856875001</v>
+        <v>419374.8009375001</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>425679.5328125001</v>
+        <v>418979.7540625001</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>426253.42868750007</v>
+        <v>419475.2884375001</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>426085.83243750007</v>
+        <v>419364.87993750005</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>425541.3940625001</v>
+        <v>418887.8715625001</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>426159.4235000001</v>
+        <v>419455.56750000006</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>418209.3823750001</v>
+        <v>416737.0541250001</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>428388.4675000001</v>
+        <v>420865.5267500001</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>427839.8820000001</v>
+        <v>420390.5232500001</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>424969.9779375001</v>
+        <v>419228.04268750007</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>425033.1087500001</v>
+        <v>419269.9522500001</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>432568.2335625001</v>
+        <v>422042.24006250006</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>431975.5364375001</v>
+        <v>421565.5789375001</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>432755.49856250006</v>
+        <v>422232.27056250005</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>430382.44062500005</v>
+        <v>421770.54437500006</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>433803.2789375001</v>
+        <v>423489.90368750005</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>433127.7122500001</v>
+        <v>422936.5610000001</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>433974.9216250001</v>
+        <v>423666.47837500006</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>434166.1323750001</v>
+        <v>424885.42437500006</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>433460.34912500007</v>
+        <v>424267.8791250001</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>426942.3148750001</v>
+        <v>419982.45737500006</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>426499.81606250006</v>
+        <v>419612.3985625001</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>430134.1860000001</v>
+        <v>420952.2232500001</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>429726.1946875001</v>
+        <v>420637.0759375001</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>430344.5449375001</v>
+        <v>421121.3744375001</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>440571.3143750001</v>
+        <v>426865.69112500007</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>439715.58693750005</v>
+        <v>426157.37568750005</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>442069.4863750001</v>
+        <v>428429.4576250001</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>450324.8067500001</v>
+        <v>432377.6145000001</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>449298.7577500001</v>
+        <v>431528.30150000006</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>450712.1288125001</v>
+        <v>432732.2833125001</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>431597.2215000001</v>
+        <v>423495.3457500001</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>431139.3351875001</v>
+        <v>423126.6014375001</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>461978.6064375001</v>
+        <v>438182.60868750006</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>460563.2413125001</v>
+        <v>437000.8475625001</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>462431.0428750001</v>
+        <v>438629.57637500006</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>419957.3094375001</v>
+        <v>409350.96668750007</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>420345.0573750001</v>
+        <v>409456.3596250001</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>424522.3670000001</v>
+        <v>409252.96875000006</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>425087.5803750001</v>
+        <v>409404.62287500006</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>419660.87175000005</v>
+        <v>409717.06675000006</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>419508.5036875001</v>
+        <v>409891.9746875001</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>419882.2811250001</v>
+        <v>410021.65087500005</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>420845.17406250007</v>
+        <v>410668.14306250005</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>420506.41650000005</v>
+        <v>410526.69775000005</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>420949.92725000007</v>
+        <v>410674.8485000001</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>420871.6327500001</v>
+        <v>410902.36300000007</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>415010.91375000007</v>
+        <v>411876.3187500001</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>415226.94287500007</v>
+        <v>412045.2041250001</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>421991.8584375001</v>
+        <v>410857.42443750007</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>421588.1028125001</v>
+        <v>410664.0183125001</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>422098.57850000006</v>
+        <v>410900.8172500001</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>419823.97193750006</v>
+        <v>410552.0624375001</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>419483.7857500001</v>
+        <v>410398.1870000001</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>425103.25325000007</v>
+        <v>410095.4317500001</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>423750.1262500001</v>
+        <v>410476.4175000001</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>425619.87106250005</v>
+        <v>410090.6340625001</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>425759.1155000001</v>
+        <v>410122.38525000005</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>425477.0352500001</v>
+        <v>410601.6247500001</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>424952.1405000001</v>
+        <v>410393.9607500001</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>425646.4828750001</v>
+        <v>410605.27912500006</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>421422.6180000001</v>
+        <v>409982.0327500001</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>423429.64456250006</v>
+        <v>410097.5370625001</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>423039.6577500001</v>
+        <v>409956.9507500001</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>429497.0605625001</v>
+        <v>409458.3218125001</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>430376.6202500001</v>
+        <v>409732.5155000001</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>431314.2003750001</v>
+        <v>410048.80262500007</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>430587.18675000005</v>
+        <v>409778.0890000001</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>431524.44250000006</v>
+        <v>410088.2370000001</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>436548.56362500007</v>
+        <v>409488.03587500006</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>435676.56006250007</v>
+        <v>409180.5058125001</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>436840.93250000005</v>
+        <v>409518.2420000001</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>423891.03481250006</v>
+        <v>410886.5918125001</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>423434.9977500001</v>
+        <v>410751.5620000001</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>444772.47975000006</v>
+        <v>409203.50075000006</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>443558.1195625001</v>
+        <v>408841.4750625001</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>445024.69500000007</v>
+        <v>409346.2345000001</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>420336.3660000001</v>
+        <v>403644.06750000006</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>420581.35162500007</v>
+        <v>403436.9916250001</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>424777.2298750001</v>
+        <v>400193.7186250001</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>425221.6781250001</v>
+        <v>399789.60262500006</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>420077.72162500006</v>
+        <v>403773.4628750001</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>420158.7672500001</v>
+        <v>403692.41725000006</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>419885.3123750001</v>
+        <v>404016.2696250001</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>419711.6990625001</v>
+        <v>404153.25781250006</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>419934.6581250001</v>
+        <v>403966.9238750001</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>420516.8502500001</v>
+        <v>403764.82675000007</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>420357.44462500006</v>
+        <v>403887.1973750001</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>420629.95000000007</v>
+        <v>403651.7270000001</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>420361.11475000007</v>
+        <v>403674.69350000005</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>420586.71775000007</v>
+        <v>403491.87425000005</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>414770.3765000001</v>
+        <v>408231.4617500001</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>414690.2058125001</v>
+        <v>408278.8188125001</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>414725.7825000001</v>
+        <v>408276.05575000006</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>421334.3326250001</v>
+        <v>402840.4223750001</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>419703.13712500007</v>
+        <v>404467.04362500005</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>419771.22662500007</v>
+        <v>404398.95412500005</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>424863.6393750001</v>
+        <v>400178.8051250001</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>425036.7332500001</v>
+        <v>400005.71125000005</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>423462.96837500005</v>
+        <v>401435.2298750001</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>423273.7850625001</v>
+        <v>401576.1980625001</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>425451.3748750001</v>
+        <v>399783.18962500006</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>425547.2800000001</v>
+        <v>399687.28450000007</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>425040.65450000006</v>
+        <v>400468.25250000006</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>424799.18850000005</v>
+        <v>400649.4550000001</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>421144.8758750001</v>
+        <v>403472.8286250001</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>421294.7790000001</v>
+        <v>403322.92550000007</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>423030.4486875001</v>
+        <v>402010.6046875001</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>423389.2172500001</v>
+        <v>401684.4285000001</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>429833.3485000001</v>
+        <v>396307.14100000006</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>429510.1287500001</v>
+        <v>396559.53300000005</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>430892.58525000006</v>
+        <v>395655.85050000006</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>430570.5111875001</v>
+        <v>395899.05143750005</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>436251.1546250001</v>
+        <v>391371.8986250001</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>435866.7946250001</v>
+        <v>391668.29087500006</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>423509.9663750001</v>
+        <v>401598.89812500007</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>444329.98225000006</v>
+        <v>384987.23725000006</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>422052.7726250001</v>
+        <v>400819.8681250001</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>421421.59912500007</v>
+        <v>401481.6091250001</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>421234.5993750001</v>
+        <v>401668.6088750001</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>421569.76237500005</v>
+        <v>401333.4458750001</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>421204.2093750001</v>
+        <v>401651.82637500006</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>421328.0183750001</v>
+        <v>401528.01737500005</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>421825.3507500001</v>
+        <v>401224.2362500001</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>421701.6670000001</v>
+        <v>401261.37250000006</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>421508.0040000001</v>
+        <v>401455.03550000006</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>415086.1262500001</v>
+        <v>407398.0382500001</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>415055.9553750001</v>
+        <v>407428.20912500005</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>423057.6677500001</v>
+        <v>399933.8042500001</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>422915.30787500006</v>
+        <v>400076.16412500007</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>421059.8431250001</v>
+        <v>401848.5863750001</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>420910.74612500006</v>
+        <v>401997.6833750001</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>427104.1100000001</v>
+        <v>396249.9195000001</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>426889.7480000001</v>
+        <v>396464.2815000001</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>425406.2275000001</v>
+        <v>397871.46450000006</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>425220.66125000006</v>
+        <v>398057.0307500001</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>427748.64062500006</v>
+        <v>395634.5876250001</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>427472.1006250001</v>
+        <v>395911.1276250001</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>427980.0182500001</v>
+        <v>395403.2100000001</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>427045.5736250001</v>
+        <v>396418.84087500005</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>427573.8957500001</v>
+        <v>395890.5187500001</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>422786.1703750001</v>
+        <v>400310.28912500007</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>423242.4263750001</v>
+        <v>399854.0331250001</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>425238.1488750001</v>
+        <v>398149.8481250001</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>432868.17012500006</v>
+        <v>390900.5743750001</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>433256.1617500001</v>
+        <v>390512.58275000006</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>434105.85187500005</v>
+        <v>389827.21762500005</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>433799.84062500007</v>
+        <v>390133.2288750001</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>440373.75600000005</v>
+        <v>384077.1322500001</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>439985.1133750001</v>
+        <v>384465.77487500006</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>426007.3986250001</v>
+        <v>397437.44712500006</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>426301.2722500001</v>
+        <v>397143.57350000006</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>448403.5616250001</v>
+        <v>376900.79287500004</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>449704.0171250001</v>
+        <v>375600.33737500006</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>422629.1503750001</v>
+        <v>406271.72087500006</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>422492.6760000001</v>
+        <v>406580.8222500001</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>422576.4115000001</v>
+        <v>406441.8510000001</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>427666.0734375001</v>
+        <v>404089.2469375001</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>427492.89350000006</v>
+        <v>404474.65975000005</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>421581.69775000005</v>
+        <v>406364.79150000005</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>421696.29362500005</v>
+        <v>406218.9458750001</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>421775.0783125001</v>
+        <v>406435.22306250007</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>421659.66937500006</v>
+        <v>406698.2768750001</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>421748.35293750005</v>
+        <v>406573.41768750007</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>422573.0364375001</v>
+        <v>406597.1219375001</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>422476.8038125001</v>
+        <v>406846.29256250005</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>422583.1794375001</v>
+        <v>406694.0569375001</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>415211.9966875001</v>
+        <v>408075.1784375001</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>423622.6620625001</v>
+        <v>405367.49681250006</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>421863.96737500007</v>
+        <v>407248.5531250001</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>421766.29862500005</v>
+        <v>407523.1848750001</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>421822.78975000005</v>
+        <v>407408.9597500001</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>427803.24356250005</v>
+        <v>404444.0945625001</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>426262.1721250001</v>
+        <v>405276.8953750001</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>426176.4085000001</v>
+        <v>405589.5072500001</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>426269.0386250001</v>
+        <v>405437.3531250001</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>428800.7047500001</v>
+        <v>404260.3240000001</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>428648.2143750001</v>
+        <v>404690.1543750001</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>428766.7953125001</v>
+        <v>404494.52306250005</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>428629.76925000007</v>
+        <v>405271.5972500001</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>428505.7833125001</v>
+        <v>405680.57956250006</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>428613.3137500001</v>
+        <v>405473.2240000001</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>423879.0343750001</v>
+        <v>407723.4821250001</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>423795.20000000007</v>
+        <v>408038.7987500001</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>434025.25100000005</v>
+        <v>402464.6010000001</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>435654.7591250001</v>
+        <v>402106.44287500007</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>435669.4619375001</v>
+        <v>402371.7799375001</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>441741.59025000007</v>
+        <v>400210.6752500001</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>442008.2543750001</v>
+        <v>399857.65237500006</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>427393.17650000006</v>
+        <v>406406.7495000001</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>427442.4135000001</v>
+        <v>406613.29125000007</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>450354.0198125001</v>
+        <v>395957.8685625001</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>425880.07600000006</v>
+        <v>418749.05225000007</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>426281.18462500005</v>
+        <v>419150.16087500006</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>433217.7966250001</v>
+        <v>422878.5178750001</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>424866.9296250001</v>
+        <v>417867.22512500006</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>424677.15662500006</v>
+        <v>417697.2978750001</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>425023.49187500007</v>
+        <v>418469.45562500006</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>427079.8563125001</v>
+        <v>420458.9415625001</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>426843.09193750005</v>
+        <v>420247.56318750005</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>427329.7248750001</v>
+        <v>420734.1961250001</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>425454.8801250001</v>
+        <v>418577.8236250001</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>416699.7540625001</v>
+        <v>414413.6628125001</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>428172.64850000007</v>
+        <v>420623.77025000006</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>428457.53762500006</v>
+        <v>420936.5488750001</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>425645.2196250001</v>
+        <v>419772.65337500005</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>425406.81006250007</v>
+        <v>419563.29506250005</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>433621.8460000001</v>
+        <v>423767.9135000001</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>432085.20275000005</v>
+        <v>423581.20200000005</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>431792.84662500006</v>
+        <v>423321.71912500006</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>432428.66581250005</v>
+        <v>423957.53831250005</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>434842.1966875001</v>
+        <v>424904.13418750005</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>435554.4977500001</v>
+        <v>425616.4352500001</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>429343.4725000001</v>
+        <v>422737.78550000006</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>432968.4995000001</v>
+        <v>424818.0672500001</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>432771.00606250006</v>
+        <v>424642.43856250006</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>433348.5240625001</v>
+        <v>425219.9565625001</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>442520.5339375001</v>
+        <v>429354.6426875001</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>442095.75812500005</v>
+        <v>428977.9568750001</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>443028.6727500001</v>
+        <v>429910.87150000007</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>445156.65800000005</v>
+        <v>431655.10225000005</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>444705.8060000001</v>
+        <v>431258.13850000006</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>454211.3930000001</v>
+        <v>437040.11825000006</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>453681.2611875001</v>
+        <v>436568.4774375001</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>454968.5520000001</v>
+        <v>437855.7682500001</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>434088.5194375001</v>
+        <v>426279.38568750006</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>465511.0811250001</v>
+        <v>442889.5048750001</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>467192.41587500006</v>
+        <v>444570.8396250001</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>428443.0198125001</v>
+        <v>420421.1873125001</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>428507.1379375001</v>
+        <v>420373.1316875001</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>436144.5483750001</v>
+        <v>424787.13712500007</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>436193.68568750005</v>
+        <v>424692.55568750005</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>436565.5232500001</v>
+        <v>425208.1120000001</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>426401.6315000001</v>
+        <v>418718.5990000001</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>427012.9870625001</v>
+        <v>419519.2533125001</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>428693.8120000001</v>
+        <v>421043.5132500001</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>428970.7299375001</v>
+        <v>421320.4311875001</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>425786.6180000001</v>
+        <v>417792.2842500001</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>425760.7111875001</v>
+        <v>417618.3649375001</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>425975.07812500006</v>
+        <v>417980.74437500007</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>415794.0651250001</v>
+        <v>412607.86512500007</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>429172.40375000006</v>
+        <v>420218.4387500001</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>429260.30962500005</v>
+        <v>420113.15587500005</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>429481.3233750001</v>
+        <v>420527.35837500007</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>427515.8663125001</v>
+        <v>420548.46131250006</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>427556.74575000006</v>
+        <v>420454.90700000006</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>427768.93000000005</v>
+        <v>420801.5250000001</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>436400.87500000006</v>
+        <v>424742.74250000005</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>436687.7050000001</v>
+        <v>425252.8550000001</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>434494.41550000006</v>
+        <v>424446.6717500001</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>434879.6210000001</v>
+        <v>424831.8772500001</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>438180.3820000001</v>
+        <v>426577.2182500001</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>438298.7974375001</v>
+        <v>426470.0036875001</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>438979.1912500001</v>
+        <v>427827.96375000005</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>439301.01450000005</v>
+        <v>428379.9545000001</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>432837.7079375001</v>
+        <v>425167.5654375001</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>432958.0166250001</v>
+        <v>425148.0591250001</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>433261.1763125001</v>
+        <v>425591.03381250007</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>436555.2690625001</v>
+        <v>427177.20531250007</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>436996.60756250005</v>
+        <v>427618.5438125001</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>446304.55831250007</v>
+        <v>431056.2583125001</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>446452.3510000001</v>
+        <v>430916.4972500001</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>460088.07212500006</v>
+        <v>439593.3133750001</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>472789.4999375001</v>
+        <v>446830.28868750005</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>472896.4936875001</v>
+        <v>446463.14743750007</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>473785.3970000001</v>
+        <v>447826.18575000006</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>431018.38075000007</v>
+        <v>426535.0757500001</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>431239.1241875001</v>
+        <v>426755.81918750005</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>440211.2697500001</v>
+        <v>433442.0022500001</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>440617.1602500001</v>
+        <v>433847.89275000006</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>429064.4390000001</v>
+        <v>424474.1590000001</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>429285.6670625001</v>
+        <v>424695.38706250006</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>429493.1273125001</v>
+        <v>425435.4223125001</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>430184.4153125001</v>
+        <v>426126.7103125001</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>432444.8720000001</v>
+        <v>428373.3720000001</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>432725.58875000005</v>
+        <v>428654.08875000005</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>430850.9390000001</v>
+        <v>426697.42150000005</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>430231.9153125001</v>
+        <v>426078.3978125001</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>431047.0578125001</v>
+        <v>426893.5403125001</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>419673.55050000007</v>
+        <v>418653.3380000001</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>434307.9514375001</v>
+        <v>429700.2964375001</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>433706.62356250006</v>
+        <v>429098.9685625001</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>434639.0567500001</v>
+        <v>430031.4017500001</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>430778.5833125001</v>
+        <v>427355.1483125001</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>430970.0271875001</v>
+        <v>427546.5921875001</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>440695.5698125001</v>
+        <v>434422.1873125001</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>439324.2572500001</v>
+        <v>434108.36475000007</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>443532.0157500001</v>
+        <v>437409.0957500001</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>443948.4742500001</v>
+        <v>437825.55425000004</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>444274.1521250001</v>
+        <v>438732.3521250001</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>443509.64637500007</v>
+        <v>437967.8463750001</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>444701.3510625001</v>
+        <v>439159.55106250005</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>435312.93606250006</v>
+        <v>431290.68106250005</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>435675.14450000005</v>
+        <v>431652.88950000005</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>439602.22543750005</v>
+        <v>434303.9029375001</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>439158.7280625001</v>
+        <v>433860.40556250006</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>440057.36962500005</v>
+        <v>434759.0471250001</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>453124.0338750001</v>
+        <v>444957.2888750001</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>453695.87218750006</v>
+        <v>445529.12718750007</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>456890.5673125001</v>
+        <v>448628.21481250005</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>457517.4438750001</v>
+        <v>449255.0913750001</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>468544.53768750007</v>
+        <v>457837.4826875001</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>467390.7963750001</v>
+        <v>456683.7413750001</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>469440.58493750007</v>
+        <v>458733.5299375001</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>441473.4777500001</v>
+        <v>436685.09025000007</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>441000.1865625001</v>
+        <v>436211.79906250007</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>441948.47306250007</v>
+        <v>437160.08556250005</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>485754.16550000006</v>
+        <v>471478.60050000006</v>
       </c>
     </row>
   </sheetData>
@@ -2642,22 +2642,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>42281.58524250001</v>
+        <v>27278.061937500017</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>25683.907072500002</v>
+        <v>25110.885712500003</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>24004.147514999997</v>
+        <v>23586.666449999997</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>82770.8712</v>
+        <v>24356.74192500002</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2667,17 +2667,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>43978.8026025</v>
+        <v>29101.518022500004</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>38779.12029750001</v>
+        <v>33111.97640250001</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>38122.354477500005</v>
+        <v>37274.3683575</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -2687,42 +2687,42 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>38991.59612624999</v>
+        <v>26981.616641249995</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>20481.1312425</v>
+        <v>19636.116817500002</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>25176.328803749995</v>
+        <v>15837.00673875</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>125125.45822500001</v>
+        <v>15551.77177500003</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>68715.583275</v>
+        <v>15916.737074999972</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>23827.1031975</v>
+        <v>15945.5893425</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>16137.32648625</v>
+        <v>15984.462206249997</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>30369.231026249996</v>
+        <v>18778.11803625</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2732,17 +2732,17 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>29220.9621375</v>
+        <v>28144.194187499997</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>33150.925837500006</v>
+        <v>31645.6233675</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>49976.8377525</v>
+        <v>33643.852117500006</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -2752,12 +2752,12 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>32532.585408749997</v>
+        <v>30367.101528749994</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>29949.852675</v>
+        <v>28766.894849999993</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_twoprice.xlsx
+++ b/A2_results_step1.5_twoprice.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>304803.19231250003</v>
+        <v>426088.45587500004</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>312810.160875</v>
+        <v>431630.19950000005</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>313140.6339375</v>
+        <v>431654.41787500004</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>302720.0295625</v>
+        <v>424226.60781250003</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>302416.11562500003</v>
+        <v>423936.588125</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>302889.502625</v>
+        <v>424237.10725</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>303521.056875</v>
+        <v>425041.021</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>303167.106875</v>
+        <v>424692.3963125</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>303679.4903125</v>
+        <v>425049.47187500005</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>305497.4048125</v>
+        <v>426455.361875</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>305109.5703125</v>
+        <v>426065.9481875</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>303817.6150625</v>
+        <v>425083.22500000003</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>304453.94443750003</v>
+        <v>425558.782</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>293216.16356250003</v>
+        <v>417436.7046875</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>292791.0000625</v>
+        <v>417041.22650000005</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>293185.47993750003</v>
+        <v>417401.44975</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>308007.009</v>
+        <v>428508.02968750003</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>308298.2265</v>
+        <v>428608.55075</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>304938.2543125</v>
+        <v>426174.585875</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>304557.3998125</v>
+        <v>425801.770625</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>314585.9418125</v>
+        <v>433185.421125</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>314141.371125</v>
+        <v>432720.9811875</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>314930.6261875</v>
+        <v>433240.02575000003</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>312251.67675</v>
+        <v>431562.4521875</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>311816.8698125</v>
+        <v>431097.639375</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>312563.6665</v>
+        <v>431614.539875</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>316712.1734375</v>
+        <v>434921.35643750004</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>317039.55975</v>
+        <v>434974.297</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>317412.369625</v>
+        <v>435568.15756250004</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>317745.906625</v>
+        <v>435608.50525000005</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>308234.4221875</v>
+        <v>428471.9450625</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>308518.7128125</v>
+        <v>428507.3455</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>326103.17881250003</v>
+        <v>441852.7081875</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>325449.849375</v>
+        <v>441178.134875</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>326572.5603125</v>
+        <v>441928.980125</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>329423.696875</v>
+        <v>444484.19725</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>339305.064375</v>
+        <v>451394.5235625</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>338521.7675625</v>
+        <v>450530.611125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>340011.80843750003</v>
+        <v>451503.0845</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>314734.309125</v>
+        <v>433492.5998125</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>314519.34606250003</v>
+        <v>433225.961625</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>315183.18312500004</v>
+        <v>433635.934125</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>316654.021</v>
+        <v>437397.12206250004</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>315904.391125</v>
+        <v>436724.879625</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>317078.0948125</v>
+        <v>437733.86075</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>332648.031375</v>
+        <v>450629.33375000005</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>331547.275875</v>
+        <v>449647.20012500003</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>313426.13225</v>
+        <v>434575.594125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>314572.60325000004</v>
+        <v>435549.19725</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>315152.3598125</v>
+        <v>436212.1526875</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>315578.39875</v>
+        <v>436550.9596875</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>319315.5638125</v>
+        <v>439793.192125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>318501.884875</v>
+        <v>439043.433375</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>315658.853125</v>
+        <v>436549.9730625</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>317015.73375</v>
+        <v>437746.0813125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>297707.2410625</v>
+        <v>421894.043125</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>322157.0086875</v>
+        <v>442163.08437500003</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>321250.2654375</v>
+        <v>441309.7863125</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>316590.7508125</v>
+        <v>437461.34612500004</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>315760.76512500003</v>
+        <v>436689.2728125</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>317007.95581250003</v>
+        <v>437774.5166875</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>334146.95625000005</v>
+        <v>452022.6080625</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>334965.8365625</v>
+        <v>452650.112375</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>330475.277625</v>
+        <v>449064.35681250005</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>329480.8405625</v>
+        <v>448138.327</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>331228.19656250003</v>
+        <v>449655.78681250004</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>337416.3481875</v>
+        <v>454790.1499375</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>336203.4474375</v>
+        <v>453681.95937500003</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>338163.0153125</v>
+        <v>455568.80950000003</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>336997.517375</v>
+        <v>454488.0635625</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>323947.7880625</v>
+        <v>443637.8959375</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>323200.799875</v>
+        <v>442951.7838125</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>324667.42668750003</v>
+        <v>444183.291875</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>331307.2964375</v>
+        <v>449759.455625</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>332194.15856250003</v>
+        <v>450433.897375</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>353059.5781875</v>
+        <v>467752.6950625</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>351529.00825</v>
+        <v>466344.9375</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>354177.7213125</v>
+        <v>468621.784875</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>358898.28337500006</v>
+        <v>472742.01875000005</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>378438.928625</v>
+        <v>488901.79031250003</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>334896.495</v>
+        <v>452784.5894375</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>334109.50675</v>
+        <v>452064.5891875</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>404981.54406250006</v>
+        <v>511120.01587500004</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>303572.27175</v>
+        <v>425056.75</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>303727.756</v>
+        <v>425128.2743125</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>312067.4954375</v>
+        <v>431237.82406250003</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>311520.181125</v>
+        <v>430712.08762500004</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>302268.132875</v>
+        <v>424081.39331250003</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>301902.36843750003</v>
+        <v>423724.55025000003</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>302462.68343750003</v>
+        <v>424154.6628125</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>302715.4230625</v>
+        <v>424447.8303125</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>302279.16112500004</v>
+        <v>424028.67431250005</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>304925.45725000004</v>
+        <v>426141.0856875</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>304449.8636875</v>
+        <v>425679.5328125</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>305158.0713125</v>
+        <v>426253.4286875</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>304663.4393125</v>
+        <v>426085.8324375</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>304090.8975</v>
+        <v>425541.39406250004</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>304831.9491875</v>
+        <v>426159.42350000003</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>293849.32550000004</v>
+        <v>418209.38237500004</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>307643.36206250003</v>
+        <v>428388.4675</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>307096.517875</v>
+        <v>427839.88200000004</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>303329.2156875</v>
+        <v>424969.9779375</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>303480.465</v>
+        <v>425033.10875</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>313516.348875</v>
+        <v>432568.23356250004</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>312931.84425</v>
+        <v>431975.53643750004</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>313897.064</v>
+        <v>432755.4985625</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>310816.6686875</v>
+        <v>430382.44062500005</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>315200.10818750004</v>
+        <v>433803.2789375</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>314511.4993125</v>
+        <v>433127.71225000004</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>315535.98</v>
+        <v>433974.921625</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>315632.3565625</v>
+        <v>434166.13237500004</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>314907.9998125</v>
+        <v>433460.349125</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>306229.368625</v>
+        <v>426942.31487500004</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>305780.32375000004</v>
+        <v>426499.8160625</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>310534.639</v>
+        <v>430134.186</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>310145.6175</v>
+        <v>429726.1946875</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>310926.5125</v>
+        <v>430344.54493750003</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>324295.13375000004</v>
+        <v>440571.314375</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>323427.1529375</v>
+        <v>439715.58693750005</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>326676.915875</v>
+        <v>442069.48637500004</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>337895.29812500003</v>
+        <v>450324.80675000005</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>336860.608</v>
+        <v>449298.75775</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>338634.504625</v>
+        <v>450712.12881250004</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>312691.16856250004</v>
+        <v>431597.22150000004</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>312233.15075000003</v>
+        <v>431139.3351875</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>353419.7170625</v>
+        <v>461978.6064375</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>351913.99125</v>
+        <v>460563.24131250003</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>354276.42275</v>
+        <v>462431.04287500004</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>296441.9258125</v>
+        <v>419957.3094375</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>296782.6300625</v>
+        <v>420345.05737500003</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>302713.54775</v>
+        <v>424522.367</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>303279.095125</v>
+        <v>425087.580375</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>296344.02025</v>
+        <v>419660.87175000005</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>296040.6999375</v>
+        <v>419508.5036875</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>296386.7093125</v>
+        <v>419882.28112500004</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>297580.7474375</v>
+        <v>420845.1740625</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>297326.053875</v>
+        <v>420506.41650000005</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>297741.1275</v>
+        <v>420949.92725</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>297789.3376875</v>
+        <v>420871.63275000005</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>290121.5278125</v>
+        <v>415010.91375</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>290336.45575</v>
+        <v>415226.942875</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>299252.17668750003</v>
+        <v>421991.8584375</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>298952.738</v>
+        <v>421588.10281250003</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>299434.60525</v>
+        <v>422098.5785</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>296205.441125</v>
+        <v>419823.9719375</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>295947.075625</v>
+        <v>419483.78575000004</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>303274.553</v>
+        <v>425103.25325</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>301395.67137500003</v>
+        <v>423750.12625000003</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>303861.494</v>
+        <v>425619.8710625</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>304080.64862500003</v>
+        <v>425759.1155</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>303510.2958125</v>
+        <v>425477.03525</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>303138.572125</v>
+        <v>424952.14050000004</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>303746.3159375</v>
+        <v>425646.48287500005</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>297935.48575</v>
+        <v>421422.618</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>300859.3369375</v>
+        <v>423429.6445625</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>300605.7373125</v>
+        <v>423039.65775</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>309259.5685625</v>
+        <v>429497.06056250003</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>310056.9694375</v>
+        <v>430376.62025000004</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>311308.34375</v>
+        <v>431314.200375</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>310810.93593750003</v>
+        <v>430587.18675</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>311652.37312500004</v>
+        <v>431524.4425</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>318304.706</v>
+        <v>436548.563625</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>317714.8644375</v>
+        <v>435676.5600625</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>318776.8271875</v>
+        <v>436840.9325</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>301773.3455</v>
+        <v>423891.0348125</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>301491.07587500004</v>
+        <v>423434.99775000004</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>328547.86106250004</v>
+        <v>444772.47975</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>327707.18806250003</v>
+        <v>443558.11956250004</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>329126.336</v>
+        <v>445024.695</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>293204.47006250004</v>
+        <v>420336.36600000004</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>293275.132125</v>
+        <v>420581.351625</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>297197.98325</v>
+        <v>424777.229875</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>297316.51175</v>
+        <v>425221.67812500003</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>292892.2971875</v>
+        <v>420077.721625</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>292928.735125</v>
+        <v>420158.76725000003</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>292654.063</v>
+        <v>419885.31237500004</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>292620.22462500003</v>
+        <v>419711.69906250003</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>292691.5218125</v>
+        <v>419934.658125</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>293101.77175</v>
+        <v>420516.85025</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>293063.57837500004</v>
+        <v>420357.444625</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>293148.1848125</v>
+        <v>420629.95</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>292828.90293750004</v>
+        <v>420361.11475</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>292908.961625</v>
+        <v>420586.71775</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>287549.4031875</v>
+        <v>414770.3765</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>287521.172875</v>
+        <v>414690.20581250003</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>287562.251375</v>
+        <v>414725.78250000003</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>293859.80875</v>
+        <v>421334.33262500004</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>292327.2621875</v>
+        <v>419703.137125</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>292377.302625</v>
+        <v>419771.226625</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>296890.08793750004</v>
+        <v>424863.639375</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>296955.4355</v>
+        <v>425036.73325000005</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>295536.4381875</v>
+        <v>423462.968375</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>295487.096</v>
+        <v>423273.78506250004</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>297276.85712500004</v>
+        <v>425451.37487500004</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>297343.86843750003</v>
+        <v>425547.28</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>296870.9136875</v>
+        <v>425040.6545</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>296820.7883125</v>
+        <v>424799.18850000005</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>293643.7166875</v>
+        <v>421144.875875</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>293713.1488125</v>
+        <v>421294.77900000004</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>295552.174125</v>
+        <v>423030.44868750003</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>295660.31768750004</v>
+        <v>423389.21725000005</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>301168.4175625</v>
+        <v>429833.3485</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>301096.47175</v>
+        <v>429510.12875000003</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>302005.56375000003</v>
+        <v>430892.58525</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>301928.45775</v>
+        <v>430570.51118750003</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>306636.7259375</v>
+        <v>436251.154625</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>306533.0135</v>
+        <v>435866.79462500004</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>295345.15925</v>
+        <v>423509.966375</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>313382.34425</v>
+        <v>444329.98225</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>291855.691375</v>
+        <v>422052.77262500004</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>291781.19412500004</v>
+        <v>421421.599125</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>291739.144125</v>
+        <v>421234.599375</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>291728.571375</v>
+        <v>421569.762375</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>291434.59500000003</v>
+        <v>421204.20937500003</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>291383.940125</v>
+        <v>421328.01837500004</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>291555.275625</v>
+        <v>421825.35075000004</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>291791.4975</v>
+        <v>421701.667</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>291755.186375</v>
+        <v>421508.004</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>287228.484875</v>
+        <v>415086.12625000003</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>287209.20012500003</v>
+        <v>415055.955375</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>292451.60225</v>
+        <v>423057.66775</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>292416.13275</v>
+        <v>422915.307875</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>290844.245125</v>
+        <v>421059.843125</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>290810.97287500004</v>
+        <v>420910.746125</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>294779.147</v>
+        <v>427104.11000000004</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>294722.454</v>
+        <v>426889.748</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>293574.05225</v>
+        <v>425406.22750000004</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>293525.3005</v>
+        <v>425220.66125</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>295054.13275</v>
+        <v>427748.640625</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>294987.013125</v>
+        <v>427472.100625</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>294964.45012500003</v>
+        <v>427980.01825</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>294319.16875</v>
+        <v>427045.573625</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>294296.152</v>
+        <v>427573.89575</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>291565.07725000003</v>
+        <v>422786.17037500005</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>291551.09575000004</v>
+        <v>423242.42637500004</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>293224.30775000004</v>
+        <v>425238.148875</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>298211.487</v>
+        <v>432868.170125</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>298101.37200000003</v>
+        <v>433256.16175</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>298731.3985</v>
+        <v>434105.851875</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>298650.625625</v>
+        <v>433799.840625</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>302566.69025</v>
+        <v>440373.756</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>302460.433875</v>
+        <v>439985.113375</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>293057.45525</v>
+        <v>426007.39862500003</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>292977.57575</v>
+        <v>426301.27225000004</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>308192.63800000004</v>
+        <v>448403.56162500003</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>308145.2245</v>
+        <v>449704.017125</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>296631.67387500004</v>
+        <v>422629.150375</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>296667.936125</v>
+        <v>422492.67600000004</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>296783.741125</v>
+        <v>422576.41150000005</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>301775.197125</v>
+        <v>427666.07343750005</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>301821.78125</v>
+        <v>427492.8935</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>295610.6869375</v>
+        <v>421581.69775000005</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>295722.64300000004</v>
+        <v>421696.293625</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>295672.3101875</v>
+        <v>421775.07831250003</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>295696.6761875</v>
+        <v>421659.669375</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>295811.87912500004</v>
+        <v>421748.3529375</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>296529.23781250004</v>
+        <v>422573.03643750004</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>296554.2174375</v>
+        <v>422476.80381250003</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>296689.212</v>
+        <v>422583.1794375</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>288210.1705625</v>
+        <v>415211.99668750004</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>297277.03175</v>
+        <v>423622.6620625</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>295896.8284375</v>
+        <v>421863.967375</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>295934.4259375</v>
+        <v>421766.298625</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>296060.03375</v>
+        <v>421822.78975</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>301792.2365625</v>
+        <v>427803.2435625</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>300125.8338125</v>
+        <v>426262.17212500004</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>300179.9113125</v>
+        <v>426176.4085</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>300351.8545</v>
+        <v>426269.03862500004</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>302649.988625</v>
+        <v>428800.70475000003</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>302715.58375</v>
+        <v>428648.21437500004</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>302906.733</v>
+        <v>428766.79531250003</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>302710.0488125</v>
+        <v>428629.76925</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>302777.4035</v>
+        <v>428505.7833125</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>302971.856875</v>
+        <v>428613.31375000003</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>298497.7645625</v>
+        <v>423879.03437500005</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>298571.25800000003</v>
+        <v>423795.2</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>308490.95</v>
+        <v>434025.25100000005</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>309663.49675</v>
+        <v>435654.75912500004</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>310033.763875</v>
+        <v>435669.46193750005</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>316141.62025000004</v>
+        <v>441741.59025</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>316519.955625</v>
+        <v>442008.254375</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>300996.07268750004</v>
+        <v>427393.1765</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>301284.70650000003</v>
+        <v>427442.4135</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>324412.0369375</v>
+        <v>450354.0198125</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>304924.73975</v>
+        <v>425880.076</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>305490.57093750004</v>
+        <v>426281.184625</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>314988.069125</v>
+        <v>433217.796625</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>303680.791</v>
+        <v>424866.929625</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>303433.42743750004</v>
+        <v>424677.156625</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>303774.4909375</v>
+        <v>425023.491875</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>306462.60500000004</v>
+        <v>427079.8563125</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>306180.9599375</v>
+        <v>426843.0919375</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>306860.67575</v>
+        <v>427329.724875</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>304471.98287500005</v>
+        <v>425454.880125</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>292439.67812500003</v>
+        <v>416699.7540625</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>308013.1805625</v>
+        <v>428172.6485</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>308442.19075</v>
+        <v>428457.537625</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>304614.8424375</v>
+        <v>425645.219625</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>304340.3089375</v>
+        <v>425406.8100625</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>315526.8725</v>
+        <v>433621.846</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>313315.3206875</v>
+        <v>432085.20275</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>312979.21225</v>
+        <v>431792.846625</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>313844.927625</v>
+        <v>432428.6658125</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>317171.0853125</v>
+        <v>434842.19668750005</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>318148.6266875</v>
+        <v>435554.49775000004</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>309500.549875</v>
+        <v>429343.47250000003</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>314396.0841875</v>
+        <v>432968.49950000003</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>314164.326125</v>
+        <v>432771.0060625</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>315004.9276875</v>
+        <v>433348.52406250004</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>327562.92206250003</v>
+        <v>442520.53393750003</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>327051.401375</v>
+        <v>442095.758125</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>328356.18168750004</v>
+        <v>443028.67275</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>331016.53725</v>
+        <v>445156.65800000005</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>330493.48225</v>
+        <v>444705.80600000004</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>343426.83081250003</v>
+        <v>454211.39300000004</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>342799.37412500003</v>
+        <v>453681.26118750003</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>344604.23243750003</v>
+        <v>454968.552</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>316209.629</v>
+        <v>434088.51943750004</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>358727.83175</v>
+        <v>465511.081125</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>361083.101</v>
+        <v>467192.415875</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>307167.0934375</v>
+        <v>428443.01981250005</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>307069.6938125</v>
+        <v>428507.1379375</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>317480.58193750004</v>
+        <v>436144.548375</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>317303.3083125</v>
+        <v>436193.6856875</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>318093.438375</v>
+        <v>436565.52325</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>304922.83187500003</v>
+        <v>426401.6315</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>305394.9504375</v>
+        <v>427012.98706250003</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>307562.1443125</v>
+        <v>428693.81200000003</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>307968.2249375</v>
+        <v>428970.72993750003</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>304271.114625</v>
+        <v>425786.618</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>304055.5225</v>
+        <v>425760.71118750004</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>304541.6711875</v>
+        <v>425975.078125</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>291183.09718750004</v>
+        <v>415794.065125</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>308248.6815</v>
+        <v>429172.40375</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>308138.250625</v>
+        <v>429260.309625</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>308680.8050625</v>
+        <v>429481.32337500004</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>306006.7106875</v>
+        <v>427515.86631250003</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>305888.8524375</v>
+        <v>427556.74575</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>306363.80881250004</v>
+        <v>427768.93</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>317218.3349375</v>
+        <v>436400.875</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>317942.8373125</v>
+        <v>436687.705</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>314859.01225</v>
+        <v>434494.4155</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>315405.7066875</v>
+        <v>434879.62100000004</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>319734.83775</v>
+        <v>438180.38200000004</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>319579.32050000003</v>
+        <v>438298.79743750003</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>320222.7238125</v>
+        <v>438979.19125000003</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>320992.842125</v>
+        <v>439301.0145</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>312483.4788125</v>
+        <v>432837.70793750003</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>312438.0501875</v>
+        <v>432958.01662500005</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>313081.18987500004</v>
+        <v>433261.1763125</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>317146.27581250004</v>
+        <v>436555.26906250004</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>317800.03468750004</v>
+        <v>436996.60756250005</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>330245.561125</v>
+        <v>446304.5583125</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>330054.876125</v>
+        <v>446452.351</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>347151.6391875</v>
+        <v>460088.072125</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>364398.886875</v>
+        <v>472789.49993750005</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>363884.7156875</v>
+        <v>472896.4936875</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>365803.15475</v>
+        <v>473785.397</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>310275.27968750003</v>
+        <v>431018.38075</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>310583.35825</v>
+        <v>431239.12418750004</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>322229.967375</v>
+        <v>440211.26975000004</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>322827.7394375</v>
+        <v>440617.16025</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>307987.452</v>
+        <v>429064.439</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>308309.0730625</v>
+        <v>429285.6670625</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>308365.2585</v>
+        <v>429493.12731250003</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>309211.854375</v>
+        <v>430184.41531250003</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>311967.2436875</v>
+        <v>432444.87200000003</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>312377.123125</v>
+        <v>432725.58875</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>310038.495</v>
+        <v>430850.939</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>309340.795375</v>
+        <v>430231.91531250003</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>310316.71025</v>
+        <v>431047.05781250005</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>295521.0050625</v>
+        <v>419673.5505</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>314301.87575</v>
+        <v>434307.9514375</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>313647.1026875</v>
+        <v>433706.6235625</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>314756.185</v>
+        <v>434639.05675000005</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>309907.988</v>
+        <v>430778.58331250004</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>310203.4663125</v>
+        <v>430970.02718750003</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>322741.0835</v>
+        <v>440695.56981250003</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>320735.1780625</v>
+        <v>439324.25725</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>326158.21400000004</v>
+        <v>443532.01575</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>326735.20262500003</v>
+        <v>443948.47425</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>326868.3579375</v>
+        <v>444274.152125</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>326019.1001875</v>
+        <v>443509.646375</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>327486.47431250004</v>
+        <v>444701.35106250003</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>315622.8281875</v>
+        <v>435312.9360625</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>316159.27931250003</v>
+        <v>435675.1445</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>321150.06625000003</v>
+        <v>439602.2254375</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>320655.9056875</v>
+        <v>439158.7280625</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>321817.6308125</v>
+        <v>440057.36962500005</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>338430.917</v>
+        <v>453124.033875</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>339251.808625</v>
+        <v>453695.8721875</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>343046.8319375</v>
+        <v>456890.56731250003</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>343935.6015625</v>
+        <v>457517.443875</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>358081.67600000004</v>
+        <v>468544.5376875</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>356786.7415625</v>
+        <v>467390.79637500003</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>359354.09762500005</v>
+        <v>469440.5849375</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>323585.3833125</v>
+        <v>441473.47775</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>323045.104125</v>
+        <v>441000.1865625</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>324247.25518750004</v>
+        <v>441948.4730625</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>380024.06450000004</v>
+        <v>485754.1655</v>
       </c>
     </row>
   </sheetData>
@@ -2550,76 +2550,76 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>5749.239000000002</v>
+        <v>24747.14156249999</v>
       </c>
       <c r="B2">
-        <v>3419.724375</v>
+        <v>3373.4503125000006</v>
       </c>
       <c r="C2">
-        <v>3296.149875</v>
+        <v>3269.5250624999985</v>
       </c>
       <c r="D2">
-        <v>66867.11249999999</v>
+        <v>53563.806562500045</v>
       </c>
       <c r="E2">
-        <v>4254.5025</v>
+        <v>4181.298749999998</v>
       </c>
       <c r="F2">
-        <v>7656.392699999999</v>
+        <v>26656.723199999986</v>
       </c>
       <c r="G2">
-        <v>6632.542350000002</v>
+        <v>17598.70440000001</v>
       </c>
       <c r="H2">
-        <v>8175.527399999999</v>
+        <v>11942.788950000002</v>
       </c>
       <c r="I2">
         <v>0.0</v>
       </c>
       <c r="J2">
-        <v>5290.833600000001</v>
+        <v>28253.29072500001</v>
       </c>
       <c r="K2">
-        <v>1649.8919999999994</v>
+        <v>5639.683874999999</v>
       </c>
       <c r="L2">
-        <v>4570.5546</v>
+        <v>15749.94645</v>
       </c>
       <c r="M2">
-        <v>71629.39499999999</v>
+        <v>70338.61499999999</v>
       </c>
       <c r="N2">
-        <v>69435.38250000002</v>
+        <v>42316.160175</v>
       </c>
       <c r="O2">
-        <v>1415.7776999999999</v>
+        <v>14649.407325</v>
       </c>
       <c r="P2">
-        <v>2216.8847250000003</v>
+        <v>2874.1438500000004</v>
       </c>
       <c r="Q2">
-        <v>8014.7313</v>
+        <v>17921.565900000005</v>
       </c>
       <c r="R2">
         <v>0.0</v>
       </c>
       <c r="S2">
-        <v>4203.6702</v>
+        <v>9317.3949</v>
       </c>
       <c r="T2">
-        <v>4119.509399999998</v>
+        <v>11254.551825000004</v>
       </c>
       <c r="U2">
-        <v>3827.1684</v>
+        <v>32294.78355</v>
       </c>
       <c r="V2">
         <v>0.0</v>
       </c>
       <c r="W2">
-        <v>1626.1412999999998</v>
+        <v>8880.043424999996</v>
       </c>
       <c r="X2">
-        <v>798.783075</v>
+        <v>6272.5077</v>
       </c>
     </row>
   </sheetData>
@@ -2642,112 +2642,112 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>29442.946301250035</v>
+        <v>28283.577551249982</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>28618.124624999993</v>
+        <v>28618.124625000008</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>26859.236175</v>
+        <v>26859.236175000005</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>29272.839607499976</v>
+        <v>28533.883357500046</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>28261.116877499997</v>
+        <v>28261.116877500015</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>31938.284579999963</v>
+        <v>30169.51457999998</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>34311.14199</v>
+        <v>34311.141990000004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>42121.11224249999</v>
+        <v>42121.1122425</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>42042.79106999999</v>
+        <v>42042.79107000001</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>27453.528832500007</v>
+        <v>27453.528832500004</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>22270.863791250005</v>
+        <v>22270.863791249998</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>17340.813359999986</v>
+        <v>16164.64836</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>22321.23609749999</v>
+        <v>21030.45609749999</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>22333.761742500013</v>
+        <v>21150.25049250001</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>16429.029738750003</v>
+        <v>16429.02973875</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>17958.74531625</v>
+        <v>17958.745316250002</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>19809.1232775</v>
+        <v>19326.087652500035</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>28011.762134999997</v>
+        <v>28011.76213499999</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>31844.258100000006</v>
+        <v>31844.258099999992</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>35429.33859749999</v>
+        <v>35429.338597500006</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>34560.705611249985</v>
+        <v>34560.70561125</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>40269.10572000001</v>
+        <v>40269.10572</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2757,7 +2757,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>32297.649153749997</v>
+        <v>32297.649153749993</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_twoprice.xlsx
+++ b/A2_results_step1.5_twoprice.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37fc5fa60b93f913/Desktop/Renewables in Electricity Markets/Shared Code Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{8079109B-AC6E-419D-91FE-0C5B900F3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="profit_dis" sheetId="1" r:id="rId1"/>
-    <sheet name="da_profit_df" r:id="rId5" sheetId="2"/>
-    <sheet name="outofsample_profit_hourly_df" r:id="rId6" sheetId="3"/>
+    <sheet name="da_profit_df" sheetId="2" r:id="rId2"/>
+    <sheet name="outofsample_profit_hourly_df" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>x1</t>
   </si>
@@ -449,2014 +449,2014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D4109D-894A-40D2-AF4E-6FC1D9019E63}">
   <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>426088.4558750001</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>431630.1995000001</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>431654.4178750001</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>424226.6078125001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>424226.60781250009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>423936.58812500007</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>424237.10725000006</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>425041.02100000007</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>424692.39631250006</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>425049.47187500005</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>426455.36187500006</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>426065.94818750006</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>425083.2250000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>425083.22500000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>425558.78200000006</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>417436.7046875001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>417436.70468750008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>417041.2265000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>417041.22650000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>417401.4497500001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>417401.44975000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>428508.0296875001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>428508.02968750009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>428608.55075000005</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>426174.5858750001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>426174.58587500011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>425801.77062500006</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>433185.42112500005</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>432720.98118750006</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>433240.0257500001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>433240.02575000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>431562.4521875001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>431562.45218750008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>431097.6393750001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>431097.63937500009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>431614.5398750001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>431614.53987500007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>434921.3564375001</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>434974.2970000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>434974.29700000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>435568.1575625001</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>435608.5052500001</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>428471.9450625001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>428471.94506250008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>428507.34550000005</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>441852.7081875001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>441852.70818750007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>441178.1348750001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>441178.13487500011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>441928.98012500006</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>444484.1972500001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>444484.19725000008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>451394.5235625001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>451394.52356250008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>450530.61112500005</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>451503.08450000006</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>433492.59981250006</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>433225.96162500005</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>433635.9341250001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>433635.93412500009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>437397.1220625001</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>436724.87962500006</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>437733.8607500001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>437733.86075000011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>450629.3337500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>450629.33375000011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>449647.2001250001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>449647.20012500009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>434575.59412500006</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>435549.1972500001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>435549.19725000008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>436212.15268750006</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>436550.9596875001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>436550.95968750009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>439793.19212500006</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>439043.4333750001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>439043.43337500008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>436549.97306250007</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>437746.08131250006</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>421894.0431250001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>421894.04312500008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>442163.0843750001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>442163.08437500009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>441309.7863125001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>441309.78631250007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>437461.3461250001</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>436689.2728125001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>436689.27281250007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>437774.51668750006</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>452022.6080625001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>452022.60806250008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>452650.1123750001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>452650.11237500008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>449064.35681250005</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>448138.32700000005</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>449655.7868125001</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>454790.1499375001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>454790.14993750007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>453681.9593750001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>453681.95937500009</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>455568.8095000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>455568.80950000009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>454488.06356250006</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>443637.89593750006</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>442951.78381250007</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>444183.2918750001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>444183.29187500011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>449759.45562500006</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>450433.89737500006</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>467752.6950625001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>467752.69506250008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>466344.9375000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>466344.93750000012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>468621.78487500007</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>472742.0187500001</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>488901.7903125001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>488901.79031250009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>452784.58943750005</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>452064.58918750007</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>511120.0158750001</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>425056.75000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>425128.2743125001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>425128.27431250009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>431237.8240625001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>431237.82406250009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>430712.0876250001</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>424081.3933125001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>424081.39331250009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>423724.5502500001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>423724.55025000009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>424154.6628125001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>424154.66281250009</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>424447.83031250007</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>424028.67431250005</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>426141.0856875001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>426141.08568750008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>425679.5328125001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>425679.53281250008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>426253.42868750007</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>426085.83243750007</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>425541.3940625001</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>426159.4235000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>426159.42350000009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>418209.3823750001</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>428388.4675000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>428388.46750000009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>427839.8820000001</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>424969.9779375001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>424969.97793750011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>425033.1087500001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>425033.10875000007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>432568.2335625001</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>431975.5364375001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>431975.53643750009</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>432755.49856250006</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>430382.44062500005</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>433803.2789375001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>433803.27893750009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>433127.7122500001</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>433974.9216250001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>433974.92162500008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>434166.1323750001</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>433460.34912500007</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>426942.3148750001</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>426499.81606250006</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>430134.1860000001</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>429726.1946875001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>429726.19468750007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>430344.5449375001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>430344.54493750009</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>440571.3143750001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>440571.31437500007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>439715.58693750005</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>442069.4863750001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>442069.48637500009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>450324.8067500001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>450324.80675000011</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>449298.7577500001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>449298.75775000011</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>450712.1288125001</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>431597.2215000001</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>431139.3351875001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>431139.33518750011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>461978.6064375001</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>460563.2413125001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>460563.24131250009</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>462431.0428750001</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>419957.3094375001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>419957.30943750008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>420345.0573750001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>420345.05737500009</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>424522.3670000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>424522.36700000009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>425087.5803750001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>425087.58037500008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>419660.87175000005</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>419508.5036875001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>419508.50368750008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>419882.2811250001</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>420845.17406250007</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>420506.41650000005</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>420949.92725000007</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>420871.6327500001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>420871.63275000011</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>415010.91375000007</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>415226.94287500007</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>421991.8584375001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>421991.85843750008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>421588.1028125001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>421588.10281250009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>422098.57850000006</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>419823.97193750006</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>419483.7857500001</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>425103.25325000007</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>423750.1262500001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>423750.12625000009</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>425619.87106250005</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>425759.1155000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>425759.11550000007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>425477.0352500001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>425477.03525000007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>424952.1405000001</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>425646.4828750001</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>421422.6180000001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>421422.61800000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>423429.64456250006</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>423039.6577500001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>423039.65775000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>429497.0605625001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>429497.06056250009</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>430376.6202500001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>430376.62025000009</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>431314.2003750001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>431314.20037500007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>430587.18675000005</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>431524.44250000006</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>436548.56362500007</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>435676.56006250007</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>436840.93250000005</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>423891.03481250006</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>423434.9977500001</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>444772.47975000006</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>443558.1195625001</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>445024.69500000007</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>420336.3660000001</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>420581.35162500007</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>424777.2298750001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>424777.22987500008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>425221.6781250001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>425221.67812500009</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>420077.72162500006</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>420158.7672500001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>420158.76725000009</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>419885.3123750001</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>419711.6990625001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>419711.69906250009</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>419934.6581250001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>419934.65812500007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>420516.8502500001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>420516.85025000008</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>420357.44462500006</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>420629.95000000007</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>420361.11475000007</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>420586.71775000007</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>414770.3765000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>414770.37650000007</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>414690.2058125001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>414690.20581250009</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>414725.7825000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>414725.78250000009</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>421334.3326250001</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>419703.13712500007</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>419771.22662500007</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>424863.6393750001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>424863.63937500009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>425036.7332500001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>425036.73325000011</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>423462.96837500005</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>423273.7850625001</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>425451.3748750001</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>425547.2800000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>425547.28000000009</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>425040.65450000006</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>424799.18850000005</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>421144.8758750001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>421144.87587500009</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>421294.7790000001</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>423030.4486875001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>423030.44868750009</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>423389.2172500001</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>429833.3485000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>429833.34850000008</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>429510.1287500001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>429510.12875000009</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>430892.58525000006</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>430570.5111875001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>430570.51118750009</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>436251.1546250001</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>436251.15462500008</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>435866.7946250001</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>423509.9663750001</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>423509.96637500008</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>444329.98225000006</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>422052.7726250001</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>421421.59912500007</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>421234.5993750001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>421234.59937500011</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>421569.76237500005</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>421204.2093750001</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>421204.20937500009</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>421328.0183750001</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>421825.3507500001</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>421701.6670000001</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>421701.66700000007</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>421508.0040000001</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>421508.00400000007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>415086.1262500001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>415086.12625000009</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>415055.9553750001</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>415055.95537500008</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>423057.6677500001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>423057.66775000008</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>422915.30787500006</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>421059.8431250001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>421059.84312500007</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>420910.74612500006</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>427104.1100000001</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>426889.7480000001</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>426889.74800000008</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>425406.2275000001</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>425220.66125000006</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>427748.64062500006</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>427472.1006250001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>427472.10062500008</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>427980.0182500001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>427980.01825000008</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>427045.5736250001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>427045.57362500008</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>427573.8957500001</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>427573.89575000008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>422786.1703750001</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>423242.4263750001</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>425238.1488750001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>425238.14887500007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>432868.17012500006</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>433256.1617500001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>433256.16175000009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>434105.85187500005</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>433799.84062500007</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>440373.75600000005</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>439985.1133750001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>439985.11337500007</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>426007.3986250001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>426007.39862500009</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>426301.2722500001</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>448403.5616250001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>448403.56162500009</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>449704.0171250001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>449704.01712500007</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>422629.1503750001</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>422629.15037500008</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>422492.6760000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>422492.67600000009</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>422576.4115000001</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>427666.0734375001</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>427492.89350000006</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>421581.69775000005</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>421696.29362500005</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>421775.0783125001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>421775.07831250009</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>421659.66937500006</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>421748.35293750005</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>422573.0364375001</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>422573.03643750009</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>422476.8038125001</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>422476.80381250009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>422583.1794375001</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>422583.17943750008</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>415211.9966875001</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>423622.6620625001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>423622.66206250008</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>421863.96737500007</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>421766.29862500005</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>421822.78975000005</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>427803.24356250005</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>426262.1721250001</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>426176.4085000001</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>426176.40850000008</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>426269.0386250001</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>428800.7047500001</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>428800.70475000009</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>428648.2143750001</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>428766.7953125001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>428766.79531250009</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>428629.76925000007</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>428505.7833125001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>428505.78331250011</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>428613.3137500001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
+        <v>428613.31375000009</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>423879.0343750001</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>423795.20000000007</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>434025.25100000005</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>435654.7591250001</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>435669.4619375001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>435669.46193750011</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>441741.59025000007</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>442008.2543750001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>442008.25437500008</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>427393.17650000006</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>427442.4135000001</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>427442.41350000008</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>450354.0198125001</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>425880.07600000006</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>426281.18462500005</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>433217.7966250001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>433217.79662500008</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>424866.9296250001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>424866.92962500011</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>424677.15662500006</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>425023.49187500007</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>427079.8563125001</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>427079.85631250008</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>426843.09193750005</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>427329.7248750001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>427329.72487500007</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>425454.8801250001</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>425454.88012500008</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>416699.7540625001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>416699.75406250008</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>428172.64850000007</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>428457.53762500006</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>425645.2196250001</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>425645.21962500009</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>425406.81006250007</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>433621.8460000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>433621.84600000008</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>432085.20275000005</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>431792.84662500006</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>432428.66581250005</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>434842.1966875001</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
+        <v>434842.19668750011</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>435554.4977500001</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>429343.4725000001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>429343.47250000009</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>432968.4995000001</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>432968.49950000009</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>432771.00606250006</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>433348.5240625001</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>442520.5339375001</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>442520.53393750009</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>442095.75812500005</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>443028.6727500001</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>443028.67275000009</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>445156.65800000005</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>444705.8060000001</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>454211.3930000001</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>453681.2611875001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
+        <v>453681.26118750009</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>454968.5520000001</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>454968.55200000008</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>434088.5194375001</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>465511.0811250001</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
+        <v>465511.08112500008</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>467192.41587500006</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>428443.0198125001</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>428507.1379375001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>428507.13793750008</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>436144.5483750001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>436144.54837500007</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>436193.68568750005</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>436565.5232500001</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>436565.52325000009</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>426401.6315000001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
+        <v>426401.63150000008</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>427012.9870625001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>427012.98706250009</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>428693.8120000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>428693.81200000009</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>428970.7299375001</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>428970.72993750009</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>425786.6180000001</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
+        <v>425786.61800000007</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>425760.7111875001</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>425975.07812500006</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>415794.0651250001</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
+        <v>415794.06512500008</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>429172.40375000006</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>429260.30962500005</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>429481.3233750001</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
+        <v>429481.32337500009</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>427515.8663125001</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
+        <v>427515.86631250009</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>427556.74575000006</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>427768.93000000005</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>436400.87500000006</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>436687.7050000001</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
+        <v>436687.70500000007</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>434494.41550000006</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>434879.6210000001</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>438180.3820000001</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>438298.7974375001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
+        <v>438298.79743750009</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>438979.1912500001</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>438979.19125000009</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>439301.01450000005</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>432837.7079375001</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>432837.70793750009</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>432958.0166250001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
+        <v>432958.01662500011</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>433261.1763125001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>433261.17631250009</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>436555.2690625001</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>436996.60756250005</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>446304.55831250007</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>446452.3510000001</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>446452.35100000008</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>460088.07212500006</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>472789.4999375001</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>472789.49993750011</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>472896.4936875001</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>472896.49368750007</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>473785.3970000001</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>473785.39700000011</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>431018.38075000007</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>431239.1241875001</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>440211.2697500001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
+        <v>440211.26975000009</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>440617.1602500001</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
+        <v>440617.16025000007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>429064.4390000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
+        <v>429064.43900000007</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>429285.6670625001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
+        <v>429285.66706250008</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>429493.1273125001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>429493.12731250009</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>430184.4153125001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>430184.41531250009</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>432444.8720000001</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
+        <v>432444.87200000009</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>432725.58875000005</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>430850.9390000001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
+        <v>430850.93900000007</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>430231.9153125001</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
+        <v>430231.91531250009</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>431047.0578125001</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>419673.55050000007</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>434307.9514375001</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
+        <v>434307.95143750007</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>433706.62356250006</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>434639.0567500001</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
+        <v>434639.05675000011</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>430778.5833125001</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
+        <v>430778.58331250009</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>430970.0271875001</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
+        <v>430970.02718750009</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>440695.5698125001</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
+        <v>440695.56981250009</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>439324.2572500001</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
+        <v>439324.25725000008</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>443532.0157500001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
+        <v>443532.01575000008</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>443948.4742500001</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
+        <v>443948.47425000009</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>444274.1521250001</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
+        <v>444274.15212500008</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>443509.64637500007</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>444701.3510625001</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
+        <v>444701.35106250009</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>435312.93606250006</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>435675.14450000005</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>439602.22543750005</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>439158.7280625001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>439158.72806250007</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>440057.36962500005</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>453124.0338750001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>453124.03387500008</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>453695.87218750006</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>456890.5673125001</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
+        <v>456890.56731250009</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>457517.4438750001</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>457517.44387500011</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>468544.53768750007</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>467390.7963750001</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
+        <v>467390.79637500009</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>469440.58493750007</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>441473.4777500001</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
+        <v>441473.47775000008</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>441000.1865625001</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
+        <v>441000.18656250008</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>441948.47306250007</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>485754.16550000006</v>
       </c>
@@ -2467,14 +2467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BB3C28-CC53-4DD3-A6E4-062F5BF6103B}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>24747.141562500015</v>
       </c>
@@ -2556,13 +2556,13 @@
         <v>3373.4503124999983</v>
       </c>
       <c r="C2">
-        <v>3269.525062500001</v>
+        <v>3269.5250625000008</v>
       </c>
       <c r="D2">
-        <v>53563.80656250001</v>
+        <v>53563.806562500009</v>
       </c>
       <c r="E2">
-        <v>4181.298750000001</v>
+        <v>4181.2987500000008</v>
       </c>
       <c r="F2">
         <v>26656.723200000004</v>
@@ -2574,37 +2574,37 @@
         <v>11942.788950000006</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>28253.290724999995</v>
       </c>
       <c r="K2">
-        <v>5639.683874999999</v>
+        <v>5639.6838749999988</v>
       </c>
       <c r="L2">
-        <v>15749.94645</v>
+        <v>15749.946449999999</v>
       </c>
       <c r="M2">
         <v>70338.61500000002</v>
       </c>
       <c r="N2">
-        <v>42316.16017499998</v>
+        <v>42316.160174999983</v>
       </c>
       <c r="O2">
         <v>14649.407324999998</v>
       </c>
       <c r="P2">
-        <v>2874.14385</v>
+        <v>2874.1438499999999</v>
       </c>
       <c r="Q2">
-        <v>17921.5659</v>
+        <v>17921.565900000001</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9317.394899999998</v>
+        <v>9317.3948999999975</v>
       </c>
       <c r="T2">
         <v>11254.551825000002</v>
@@ -2613,13 +2613,13 @@
         <v>32294.783550000004</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>8880.043424999996</v>
+        <v>8880.0434249999962</v>
       </c>
       <c r="X2">
-        <v>6272.507699999998</v>
+        <v>6272.5076999999983</v>
       </c>
     </row>
   </sheetData>
@@ -2628,136 +2628,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D10F3A-BE79-41A8-9687-3F50ABEDF182}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>42281.58524250001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>42281.585242500012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>25683.907072500002</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>24004.147514999997</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>82770.8712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>82770.871199999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24898.2777675</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>43978.8026025</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>38779.12029750001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>38779.120297500012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>38122.354477500005</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>35035.65922500001</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>38991.59612624999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>38991.596126249991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20481.1312425</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>25176.328803749995</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>125125.45822500001</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>68715.583275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>68715.583274999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>23827.1031975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>23827.103197500001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16137.32648625</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>30369.231026249996</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>23343.135112500007</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>29220.9621375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>29220.962137499999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>33150.925837500006</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>49976.8377525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>49976.837752500003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>33557.58809999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>33557.588099999979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>32532.585408749997</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>29949.852675</v>
+        <v>29949.852674999998</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_twoprice.xlsx
+++ b/A2_results_step1.5_twoprice.xlsx
@@ -463,97 +463,97 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>419221.7296250001</v>
+        <v>419221.72962500004</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>421236.6657500001</v>
+        <v>421236.66575000004</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>421413.3816250001</v>
+        <v>421413.38162500004</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>417338.64281250007</v>
+        <v>417338.6428125</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>417126.7306250001</v>
+        <v>417126.730625</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>417427.2497500001</v>
+        <v>417427.24975</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>418831.0197500001</v>
+        <v>418831.01975000004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>418566.06256250007</v>
+        <v>418566.0625625</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>418923.13812500006</v>
+        <v>418923.138125</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>420199.9056250001</v>
+        <v>420199.905625</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>419897.8244375001</v>
+        <v>419897.82443750004</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>418829.18500000006</v>
+        <v>418829.185</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>419304.7420000001</v>
+        <v>419304.742</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>415895.1084375001</v>
+        <v>415895.1084375</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>415512.9827500001</v>
+        <v>415512.98275</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>415873.20600000006</v>
+        <v>415873.206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>421482.5559375001</v>
+        <v>421482.55593750003</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>421673.0670000001</v>
+        <v>421673.06700000004</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>420934.7896250001</v>
+        <v>420934.78962500003</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -563,22 +563,22 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>423625.2348750001</v>
+        <v>423625.234875</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>423292.3999375001</v>
+        <v>423292.3999375</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>423811.4445000001</v>
+        <v>423811.44450000004</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>423424.1659375001</v>
+        <v>423424.1659375</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -588,172 +588,172 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>423607.4711250001</v>
+        <v>423607.47112500004</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>425382.16768750007</v>
+        <v>425382.1676875</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>425586.99575000006</v>
+        <v>425586.99575</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>426922.2100625001</v>
+        <v>426922.21006250003</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>427098.9202500001</v>
+        <v>427098.92025</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>422220.11006250005</v>
+        <v>422220.1100625</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>422355.04050000006</v>
+        <v>422355.0405</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>429225.5144375001</v>
+        <v>429225.51443750004</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>428743.0161250001</v>
+        <v>428743.016125</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>429493.8613750001</v>
+        <v>429493.86137500004</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>431503.8560000001</v>
+        <v>431503.856</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>434527.6323125001</v>
+        <v>434527.63231250003</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>433959.46487500006</v>
+        <v>433959.464875</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>434931.93825000006</v>
+        <v>434931.93825</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>425809.04231250007</v>
+        <v>425809.0423125</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>425700.6216250001</v>
+        <v>425700.621625</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>426110.59412500006</v>
+        <v>426110.594125</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>435696.7970625001</v>
+        <v>435696.79706250003</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>435024.5546250001</v>
+        <v>435024.554625</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>436033.5357500001</v>
+        <v>436033.53575000004</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>447976.4487500001</v>
+        <v>447976.44875000004</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>446994.3151250001</v>
+        <v>446994.315125</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>432758.0441250001</v>
+        <v>432758.044125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>433731.6472500001</v>
+        <v>433731.64725000004</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>434730.2576875001</v>
+        <v>434730.25768750004</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>435069.06468750007</v>
+        <v>435069.0646875</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>438315.88712500007</v>
+        <v>438315.887125</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>437566.1283750001</v>
+        <v>437566.12837500003</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>435080.6780625001</v>
+        <v>435080.6780625</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>436276.7863125001</v>
+        <v>436276.7863125</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>421692.89312500006</v>
+        <v>421692.893125</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>440506.1393750001</v>
+        <v>440506.139375</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>439652.84131250007</v>
+        <v>439652.8413125</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>436309.2561250001</v>
+        <v>436309.256125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -763,77 +763,77 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>436622.4266875001</v>
+        <v>436622.42668750003</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>449613.2630625001</v>
+        <v>449613.26306250005</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>450240.76737500005</v>
+        <v>450240.767375</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>447186.3268125001</v>
+        <v>447186.3268125</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>446260.2970000001</v>
+        <v>446260.297</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>447777.75681250007</v>
+        <v>447777.7568125</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>452579.88493750006</v>
+        <v>452579.8849375</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>451471.6943750001</v>
+        <v>451471.694375</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>453632.9995000001</v>
+        <v>453632.99950000003</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>452552.25356250006</v>
+        <v>452552.2535625</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>442182.6859375001</v>
+        <v>442182.68593750003</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>441496.5738125001</v>
+        <v>441496.5738125</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>442728.0818750001</v>
+        <v>442728.08187500003</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>447710.65062500007</v>
+        <v>447710.650625</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>448385.09237500007</v>
+        <v>448385.092375</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -843,22 +843,22 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>463333.0425000001</v>
+        <v>463333.04250000004</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>465609.8898750001</v>
+        <v>465609.889875</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>469781.4237500001</v>
+        <v>469781.42375</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>484990.1203125001</v>
+        <v>484990.12031250005</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -868,132 +868,132 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>450323.89918750006</v>
+        <v>450323.8991875</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>505830.4458750001</v>
+        <v>505830.44587500003</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>417659.1810000001</v>
+        <v>417659.18100000004</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>417726.2050625001</v>
+        <v>417726.2050625</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>419802.6795625001</v>
+        <v>419802.67956250004</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>419406.3351250001</v>
+        <v>419406.33512500004</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>416392.4515625001</v>
+        <v>416392.45156250003</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>416120.3465000001</v>
+        <v>416120.34650000004</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>416493.5718125001</v>
+        <v>416493.5718125</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>417765.1215625001</v>
+        <v>417765.1215625</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>417413.9255625001</v>
+        <v>417413.9255625</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>419374.8009375001</v>
+        <v>419374.8009375</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>418979.7540625001</v>
+        <v>418979.7540625</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>419475.2884375001</v>
+        <v>419475.2884375</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>419364.87993750005</v>
+        <v>419364.8799375</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>418887.8715625001</v>
+        <v>418887.8715625</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>419455.56750000006</v>
+        <v>419455.5675</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>416737.0541250001</v>
+        <v>416737.054125</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>420865.5267500001</v>
+        <v>420865.52675</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>420390.5232500001</v>
+        <v>420390.52325</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>419228.04268750007</v>
+        <v>419228.0426875</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>419269.9522500001</v>
+        <v>419269.95225000003</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>422042.24006250006</v>
+        <v>422042.2400625</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>421565.5789375001</v>
+        <v>421565.5789375</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>422232.27056250005</v>
+        <v>422232.2705625</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>421770.54437500006</v>
+        <v>421770.544375</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -1003,397 +1003,397 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>422936.5610000001</v>
+        <v>422936.56100000005</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>423666.47837500006</v>
+        <v>423666.478375</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>424885.42437500006</v>
+        <v>424885.424375</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>424267.8791250001</v>
+        <v>424267.87912500004</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>419982.45737500006</v>
+        <v>419982.457375</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>419612.3985625001</v>
+        <v>419612.3985625</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>420952.2232500001</v>
+        <v>420952.22325000004</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>420637.0759375001</v>
+        <v>420637.0759375</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>421121.3744375001</v>
+        <v>421121.3744375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>426865.69112500007</v>
+        <v>426865.691125</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>426157.37568750005</v>
+        <v>426157.3756875</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>428429.4576250001</v>
+        <v>428429.45762500004</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>432377.6145000001</v>
+        <v>432377.6145</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>431528.30150000006</v>
+        <v>431528.3015</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>432732.2833125001</v>
+        <v>432732.28331250005</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>423495.3457500001</v>
+        <v>423495.34575000004</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>423126.6014375001</v>
+        <v>423126.60143750004</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>438182.60868750006</v>
+        <v>438182.6086875</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>437000.8475625001</v>
+        <v>437000.84756250004</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>438629.57637500006</v>
+        <v>438629.576375</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>409350.96668750007</v>
+        <v>409350.9666875</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>409456.3596250001</v>
+        <v>409456.35962500004</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>409252.96875000006</v>
+        <v>409252.96875</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>409404.62287500006</v>
+        <v>409404.622875</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>409717.06675000006</v>
+        <v>409717.06675</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>409891.9746875001</v>
+        <v>409891.97468750004</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>410021.65087500005</v>
+        <v>410021.650875</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>410668.14306250005</v>
+        <v>410668.1430625</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>410526.69775000005</v>
+        <v>410526.69775</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>410674.8485000001</v>
+        <v>410674.8485</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>410902.36300000007</v>
+        <v>410902.363</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>411876.3187500001</v>
+        <v>411876.31875000003</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>412045.2041250001</v>
+        <v>412045.20412500005</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>410857.42443750007</v>
+        <v>410857.4244375</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>410664.0183125001</v>
+        <v>410664.01831250003</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>410900.8172500001</v>
+        <v>410900.81725</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>410552.0624375001</v>
+        <v>410552.06243750005</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>410398.1870000001</v>
+        <v>410398.18700000003</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>410095.4317500001</v>
+        <v>410095.43175000005</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>410476.4175000001</v>
+        <v>410476.41750000004</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>410090.6340625001</v>
+        <v>410090.63406250003</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>410122.38525000005</v>
+        <v>410122.38525</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>410601.6247500001</v>
+        <v>410601.62475</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>410393.9607500001</v>
+        <v>410393.96075</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>410605.27912500006</v>
+        <v>410605.279125</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>409982.0327500001</v>
+        <v>409982.03275</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>410097.5370625001</v>
+        <v>410097.5370625</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>409956.9507500001</v>
+        <v>409956.95075</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>409458.3218125001</v>
+        <v>409458.3218125</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>409732.5155000001</v>
+        <v>409732.51550000004</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>410048.80262500007</v>
+        <v>410048.802625</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>409778.0890000001</v>
+        <v>409778.08900000004</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>410088.2370000001</v>
+        <v>410088.237</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>409488.03587500006</v>
+        <v>409488.035875</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>409180.5058125001</v>
+        <v>409180.5058125</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>409518.2420000001</v>
+        <v>409518.242</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>410886.5918125001</v>
+        <v>410886.59181250003</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>410751.5620000001</v>
+        <v>410751.56200000003</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>409203.50075000006</v>
+        <v>409203.50075</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>408841.4750625001</v>
+        <v>408841.47506250005</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>409346.2345000001</v>
+        <v>409346.2345</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>403644.06750000006</v>
+        <v>403644.0675</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>403436.9916250001</v>
+        <v>403436.991625</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>400193.7186250001</v>
+        <v>400193.71862500004</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>399789.60262500006</v>
+        <v>399789.602625</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>403773.4628750001</v>
+        <v>403773.462875</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>403692.41725000006</v>
+        <v>403692.41725</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>404016.2696250001</v>
+        <v>404016.269625</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>404153.25781250006</v>
+        <v>404153.2578125</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>403966.9238750001</v>
+        <v>403966.92387500004</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>403764.82675000007</v>
+        <v>403764.82675</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>403887.1973750001</v>
+        <v>403887.197375</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>403651.7270000001</v>
+        <v>403651.727</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>403674.69350000005</v>
+        <v>403674.6935</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>403491.87425000005</v>
+        <v>403491.87425</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>408231.4617500001</v>
+        <v>408231.46175</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>408278.8188125001</v>
+        <v>408278.81881250005</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>408276.05575000006</v>
+        <v>408276.05575</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>402840.4223750001</v>
+        <v>402840.422375</v>
       </c>
     </row>
     <row r="189" spans="1:1">
@@ -1408,7 +1408,7 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>400178.8051250001</v>
+        <v>400178.805125</v>
       </c>
     </row>
     <row r="192" spans="1:1">
@@ -1418,67 +1418,67 @@
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>401435.2298750001</v>
+        <v>401435.229875</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>401576.1980625001</v>
+        <v>401576.19806250004</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>399783.18962500006</v>
+        <v>399783.189625</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>399687.28450000007</v>
+        <v>399687.2845</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>400468.25250000006</v>
+        <v>400468.2525</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>400649.4550000001</v>
+        <v>400649.455</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>403472.8286250001</v>
+        <v>403472.828625</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>403322.92550000007</v>
+        <v>403322.9255</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>402010.6046875001</v>
+        <v>402010.60468750005</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>401684.4285000001</v>
+        <v>401684.42850000004</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>396307.14100000006</v>
+        <v>396307.141</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>396559.53300000005</v>
+        <v>396559.533</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>395655.85050000006</v>
+        <v>395655.8505</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -1488,167 +1488,167 @@
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>391371.8986250001</v>
+        <v>391371.89862500003</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>391668.29087500006</v>
+        <v>391668.290875</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>401598.89812500007</v>
+        <v>401598.898125</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>384987.23725000006</v>
+        <v>384987.23725</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>400819.8681250001</v>
+        <v>400819.86812500004</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>401481.6091250001</v>
+        <v>401481.609125</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>401668.6088750001</v>
+        <v>401668.60887500003</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>401333.4458750001</v>
+        <v>401333.44587500003</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>401651.82637500006</v>
+        <v>401651.826375</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>401528.01737500005</v>
+        <v>401528.017375</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>401224.2362500001</v>
+        <v>401224.23625</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>401261.37250000006</v>
+        <v>401261.3725</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>401455.03550000006</v>
+        <v>401455.0355</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>407398.0382500001</v>
+        <v>407398.03825000004</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>407428.20912500005</v>
+        <v>407428.209125</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>399933.8042500001</v>
+        <v>399933.80425000004</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>400076.16412500007</v>
+        <v>400076.164125</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>401848.5863750001</v>
+        <v>401848.586375</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>401997.6833750001</v>
+        <v>401997.683375</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>396249.9195000001</v>
+        <v>396249.9195</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>396464.2815000001</v>
+        <v>396464.28150000004</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>397871.46450000006</v>
+        <v>397871.4645</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>398057.0307500001</v>
+        <v>398057.03075000003</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>395634.5876250001</v>
+        <v>395634.58762500004</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>395911.1276250001</v>
+        <v>395911.127625</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>395403.2100000001</v>
+        <v>395403.21</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>396418.84087500005</v>
+        <v>396418.840875</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>395890.5187500001</v>
+        <v>395890.51875000005</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>400310.28912500007</v>
+        <v>400310.289125</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>399854.0331250001</v>
+        <v>399854.033125</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>398149.8481250001</v>
+        <v>398149.848125</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>390900.5743750001</v>
+        <v>390900.574375</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>390512.58275000006</v>
+        <v>390512.58275</v>
       </c>
     </row>
     <row r="240" spans="1:1">
@@ -1658,27 +1658,27 @@
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>390133.2288750001</v>
+        <v>390133.22887500003</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>384077.1322500001</v>
+        <v>384077.13225</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>384465.77487500006</v>
+        <v>384465.774875</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>397437.44712500006</v>
+        <v>397437.447125</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>397143.57350000006</v>
+        <v>397143.5735</v>
       </c>
     </row>
     <row r="246" spans="1:1">
@@ -1688,277 +1688,277 @@
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>375600.33737500006</v>
+        <v>375600.337375</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>406271.72087500006</v>
+        <v>406271.720875</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>406580.8222500001</v>
+        <v>406580.82225</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>406441.8510000001</v>
+        <v>406441.851</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>404089.2469375001</v>
+        <v>404089.2469375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>404474.65975000005</v>
+        <v>404474.65975</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>406364.79150000005</v>
+        <v>406364.7915</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>406218.9458750001</v>
+        <v>406218.94587500003</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>406435.22306250007</v>
+        <v>406435.2230625</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>406698.2768750001</v>
+        <v>406698.27687500004</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>406573.41768750007</v>
+        <v>406573.4176875</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>406597.1219375001</v>
+        <v>406597.1219375</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>406846.29256250005</v>
+        <v>406846.2925625</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>406694.0569375001</v>
+        <v>406694.0569375</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>408075.1784375001</v>
+        <v>408075.1784375</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>405367.49681250006</v>
+        <v>405367.4968125</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>407248.5531250001</v>
+        <v>407248.55312500003</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>407523.1848750001</v>
+        <v>407523.18487500004</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>407408.9597500001</v>
+        <v>407408.95975000004</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>404444.0945625001</v>
+        <v>404444.0945625</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>405276.8953750001</v>
+        <v>405276.895375</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>405589.5072500001</v>
+        <v>405589.50725</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>405437.3531250001</v>
+        <v>405437.353125</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>404260.3240000001</v>
+        <v>404260.324</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>404690.1543750001</v>
+        <v>404690.15437500004</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>404494.52306250005</v>
+        <v>404494.5230625</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>405271.5972500001</v>
+        <v>405271.59725</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>405680.57956250006</v>
+        <v>405680.5795625</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>405473.2240000001</v>
+        <v>405473.22400000005</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>407723.4821250001</v>
+        <v>407723.48212500004</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>408038.7987500001</v>
+        <v>408038.79875</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>402464.6010000001</v>
+        <v>402464.601</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>402106.44287500007</v>
+        <v>402106.442875</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>402371.7799375001</v>
+        <v>402371.7799375</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>400210.6752500001</v>
+        <v>400210.67525000003</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>399857.65237500006</v>
+        <v>399857.652375</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>406406.7495000001</v>
+        <v>406406.74950000003</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>406613.29125000007</v>
+        <v>406613.29125</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>395957.8685625001</v>
+        <v>395957.8685625</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>418749.05225000007</v>
+        <v>418749.05225</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>419150.16087500006</v>
+        <v>419150.160875</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>422878.5178750001</v>
+        <v>422878.517875</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>417867.22512500006</v>
+        <v>417867.225125</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>417697.2978750001</v>
+        <v>417697.29787500005</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>418469.45562500006</v>
+        <v>418469.455625</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>420458.9415625001</v>
+        <v>420458.9415625</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>420247.56318750005</v>
+        <v>420247.5631875</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>420734.1961250001</v>
+        <v>420734.196125</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>418577.8236250001</v>
+        <v>418577.823625</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>414413.6628125001</v>
+        <v>414413.6628125</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>420623.77025000006</v>
+        <v>420623.77025</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>420936.5488750001</v>
+        <v>420936.54887500004</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>419772.65337500005</v>
+        <v>419772.653375</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>419563.29506250005</v>
+        <v>419563.2950625</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>423767.9135000001</v>
+        <v>423767.9135</v>
       </c>
     </row>
     <row r="302" spans="1:1">
@@ -1968,112 +1968,112 @@
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>423321.71912500006</v>
+        <v>423321.719125</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>423957.53831250005</v>
+        <v>423957.5383125</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>424904.13418750005</v>
+        <v>424904.1341875</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>425616.4352500001</v>
+        <v>425616.43525000004</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>422737.78550000006</v>
+        <v>422737.7855</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>424818.0672500001</v>
+        <v>424818.06725</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>424642.43856250006</v>
+        <v>424642.4385625</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>425219.9565625001</v>
+        <v>425219.95656250004</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>429354.6426875001</v>
+        <v>429354.64268750005</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>428977.9568750001</v>
+        <v>428977.95687500003</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>429910.87150000007</v>
+        <v>429910.8715</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>431655.10225000005</v>
+        <v>431655.10225</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>431258.13850000006</v>
+        <v>431258.1385</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>437040.11825000006</v>
+        <v>437040.11825</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>436568.4774375001</v>
+        <v>436568.4774375</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>437855.7682500001</v>
+        <v>437855.76825</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>426279.38568750006</v>
+        <v>426279.3856875</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>442889.5048750001</v>
+        <v>442889.50487500004</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>444570.8396250001</v>
+        <v>444570.839625</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>420421.1873125001</v>
+        <v>420421.1873125</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>420373.1316875001</v>
+        <v>420373.13168750005</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>424787.13712500007</v>
+        <v>424787.137125</v>
       </c>
     </row>
     <row r="325" spans="1:1">
@@ -2083,177 +2083,177 @@
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>425208.1120000001</v>
+        <v>425208.112</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>418718.5990000001</v>
+        <v>418718.59900000005</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>419519.2533125001</v>
+        <v>419519.2533125</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>421043.5132500001</v>
+        <v>421043.51325</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>421320.4311875001</v>
+        <v>421320.4311875</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>417792.2842500001</v>
+        <v>417792.28425</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>417618.3649375001</v>
+        <v>417618.36493750004</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>417980.74437500007</v>
+        <v>417980.744375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>412607.86512500007</v>
+        <v>412607.865125</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>420218.4387500001</v>
+        <v>420218.43875000003</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>420113.15587500005</v>
+        <v>420113.155875</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>420527.35837500007</v>
+        <v>420527.358375</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>420548.46131250006</v>
+        <v>420548.4613125</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>420454.90700000006</v>
+        <v>420454.907</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>420801.5250000001</v>
+        <v>420801.525</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>424742.74250000005</v>
+        <v>424742.7425</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>425252.8550000001</v>
+        <v>425252.85500000004</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>424446.6717500001</v>
+        <v>424446.67175000004</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>424831.8772500001</v>
+        <v>424831.87725</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>426577.2182500001</v>
+        <v>426577.21825000003</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>426470.0036875001</v>
+        <v>426470.0036875</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>427827.96375000005</v>
+        <v>427827.96375</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>428379.9545000001</v>
+        <v>428379.9545</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>425167.5654375001</v>
+        <v>425167.5654375</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>425148.0591250001</v>
+        <v>425148.059125</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>425591.03381250007</v>
+        <v>425591.0338125</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>427177.20531250007</v>
+        <v>427177.2053125</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>427618.5438125001</v>
+        <v>427618.5438125</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>431056.2583125001</v>
+        <v>431056.2583125</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>430916.4972500001</v>
+        <v>430916.49725</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>439593.3133750001</v>
+        <v>439593.313375</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>446830.28868750005</v>
+        <v>446830.2886875</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>446463.14743750007</v>
+        <v>446463.1474375</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>447826.18575000006</v>
+        <v>447826.18575</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>426535.0757500001</v>
+        <v>426535.07575</v>
       </c>
     </row>
     <row r="361" spans="1:1">
@@ -2263,102 +2263,102 @@
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>433442.0022500001</v>
+        <v>433442.00225</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>433847.89275000006</v>
+        <v>433847.89275</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>424474.1590000001</v>
+        <v>424474.15900000004</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>424695.38706250006</v>
+        <v>424695.3870625</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>425435.4223125001</v>
+        <v>425435.4223125</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>426126.7103125001</v>
+        <v>426126.7103125</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>428373.3720000001</v>
+        <v>428373.37200000003</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>428654.08875000005</v>
+        <v>428654.08875</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>426697.42150000005</v>
+        <v>426697.4215</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>426078.3978125001</v>
+        <v>426078.3978125</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>426893.5403125001</v>
+        <v>426893.54031250003</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>418653.3380000001</v>
+        <v>418653.338</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>429700.2964375001</v>
+        <v>429700.29643750004</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>429098.9685625001</v>
+        <v>429098.9685625</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>430031.4017500001</v>
+        <v>430031.40175</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>427355.1483125001</v>
+        <v>427355.14831250004</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>427546.5921875001</v>
+        <v>427546.59218750003</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>434422.1873125001</v>
+        <v>434422.1873125</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>434108.36475000007</v>
+        <v>434108.36475</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>437409.0957500001</v>
+        <v>437409.09575000004</v>
       </c>
     </row>
     <row r="382" spans="1:1">
@@ -2368,22 +2368,22 @@
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>438732.3521250001</v>
+        <v>438732.35212500003</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>437967.8463750001</v>
+        <v>437967.846375</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>439159.55106250005</v>
+        <v>439159.5510625</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>431290.68106250005</v>
+        <v>431290.6810625</v>
       </c>
     </row>
     <row r="387" spans="1:1">
@@ -2393,72 +2393,72 @@
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>434303.9029375001</v>
+        <v>434303.90293750004</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>433860.40556250006</v>
+        <v>433860.4055625</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>434759.0471250001</v>
+        <v>434759.04712500004</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>444957.2888750001</v>
+        <v>444957.288875</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>445529.12718750007</v>
+        <v>445529.1271875</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>448628.21481250005</v>
+        <v>448628.2148125</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>449255.0913750001</v>
+        <v>449255.091375</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>457837.4826875001</v>
+        <v>457837.4826875</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>456683.7413750001</v>
+        <v>456683.74137500004</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>458733.5299375001</v>
+        <v>458733.5299375</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>436685.09025000007</v>
+        <v>436685.09025</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>436211.79906250007</v>
+        <v>436211.7990625</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>437160.08556250005</v>
+        <v>437160.0855625</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>471478.60050000006</v>
+        <v>471478.6005</v>
       </c>
     </row>
   </sheetData>
@@ -2550,34 +2550,34 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>24747.141562500015</v>
+        <v>24747.14156249999</v>
       </c>
       <c r="B2">
-        <v>3373.4503124999983</v>
+        <v>3373.4503125000006</v>
       </c>
       <c r="C2">
-        <v>3269.525062500001</v>
+        <v>3269.5250624999985</v>
       </c>
       <c r="D2">
-        <v>53563.80656250001</v>
+        <v>53563.806562500045</v>
       </c>
       <c r="E2">
-        <v>4181.298750000001</v>
+        <v>4181.298749999998</v>
       </c>
       <c r="F2">
-        <v>26656.723200000004</v>
+        <v>26656.723199999986</v>
       </c>
       <c r="G2">
-        <v>17598.704400000006</v>
+        <v>17598.70440000001</v>
       </c>
       <c r="H2">
-        <v>11942.788950000006</v>
+        <v>11942.788950000002</v>
       </c>
       <c r="I2">
         <v>0.0</v>
       </c>
       <c r="J2">
-        <v>28253.290724999995</v>
+        <v>28253.29072500001</v>
       </c>
       <c r="K2">
         <v>5639.683874999999</v>
@@ -2586,31 +2586,31 @@
         <v>15749.94645</v>
       </c>
       <c r="M2">
-        <v>70338.61500000002</v>
+        <v>70338.61499999999</v>
       </c>
       <c r="N2">
-        <v>42316.16017499998</v>
+        <v>42316.160175</v>
       </c>
       <c r="O2">
-        <v>14649.407324999998</v>
+        <v>14649.407325</v>
       </c>
       <c r="P2">
-        <v>2874.14385</v>
+        <v>2874.1438500000004</v>
       </c>
       <c r="Q2">
-        <v>17921.5659</v>
+        <v>17921.565900000005</v>
       </c>
       <c r="R2">
         <v>0.0</v>
       </c>
       <c r="S2">
-        <v>9317.394899999998</v>
+        <v>9317.3949</v>
       </c>
       <c r="T2">
-        <v>11254.551825000002</v>
+        <v>11254.551825000004</v>
       </c>
       <c r="U2">
-        <v>32294.783550000004</v>
+        <v>32294.78355</v>
       </c>
       <c r="V2">
         <v>0.0</v>
@@ -2619,7 +2619,7 @@
         <v>8880.043424999996</v>
       </c>
       <c r="X2">
-        <v>6272.507699999998</v>
+        <v>6272.5077</v>
       </c>
     </row>
   </sheetData>
@@ -2642,37 +2642,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>27278.061937500017</v>
+        <v>27278.061937499988</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>25110.885712500003</v>
+        <v>25110.88571250001</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>23586.666449999997</v>
+        <v>23586.666450000004</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>24356.74192500002</v>
+        <v>24356.741925000046</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>24898.2777675</v>
+        <v>24898.277767499996</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>29101.518022500004</v>
+        <v>29101.518022499986</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>33111.97640250001</v>
+        <v>33111.976402500004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2682,17 +2682,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>35035.65922500001</v>
+        <v>35035.659224999996</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>26981.616641249995</v>
+        <v>26981.61664125001</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>19636.116817500002</v>
+        <v>19636.1168175</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -2702,17 +2702,17 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>15551.77177500003</v>
+        <v>15551.771774999987</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>15916.737074999972</v>
+        <v>15916.737075000005</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>15945.5893425</v>
+        <v>15945.589342500001</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2722,12 +2722,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>18778.11803625</v>
+        <v>18778.118036250005</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>23343.135112500007</v>
+        <v>23343.13511249999</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -2737,17 +2737,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>31645.6233675</v>
+        <v>31645.623367500004</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>33643.852117500006</v>
+        <v>33643.8521175</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>33557.58809999998</v>
+        <v>33557.588099999986</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2757,7 +2757,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>28766.894849999993</v>
+        <v>28766.894850000004</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_twoprice.xlsx
+++ b/A2_results_step1.5_twoprice.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="115_{4875AF4A-6F95-47EB-9E61-4B8AAAC05FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311BF2EE-B871-4255-9B5F-469FE132A3C3}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="2" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="profit_dis" sheetId="1" r:id="rId1"/>
-    <sheet name="da_profit_df" r:id="rId5" sheetId="2"/>
-    <sheet name="outofsample_profit_hourly_df" r:id="rId6" sheetId="3"/>
+    <sheet name="da_profit_df" sheetId="2" r:id="rId2"/>
+    <sheet name="outofsample_profit_hourly_df" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>x1</t>
   </si>
@@ -100,12 +111,22 @@
   <si>
     <t>x24</t>
   </si>
+  <si>
+    <t>new value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,14 +152,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,2014 +473,2016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E7DEF7-20C7-45D3-994F-88BB87EA1FA4}">
   <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>419221.72962500004</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>421236.66575000004</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>421413.38162500004</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>417338.6428125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>417338.64281250001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>417126.730625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>417126.73062500003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>417427.24975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>417427.24975000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>418831.01975000004</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>418566.0625625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>418566.06256250001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>418923.138125</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>420199.905625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>420199.90562500001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>419897.82443750004</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>418829.185</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>419304.742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>419304.74200000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>415895.1084375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>415895.10843750002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>415512.98275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>415512.98275000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>415873.206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>415873.20600000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>421482.55593750003</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>421673.06700000004</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>420934.78962500003</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>420628.47187500005</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>423625.234875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>423625.23487500002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>423292.3999375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>423292.39993750001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>423811.44450000004</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>423424.1659375</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>423424.16593750002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>423090.57062500005</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>423607.47112500004</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>425382.1676875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>425382.16768750001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>425586.99575</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>426922.21006250003</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>427098.92025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>427098.92025000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>422220.1100625</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>422355.0405</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>429225.51443750004</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>428743.016125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>428743.01612500002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>429493.86137500004</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>431503.856</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>431503.85600000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>434527.63231250003</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>433959.464875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>433959.46487500001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>434931.93825</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>434931.93825000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>425809.0423125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>425809.04231250001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>425700.621625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>425700.62162500003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>426110.594125</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>435696.79706250003</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>435024.554625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>435024.55462499999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>436033.53575000004</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>447976.44875000004</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>446994.315125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>446994.31512500002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>432758.044125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>432758.04412500001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>433731.64725000004</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>434730.25768750004</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>435069.0646875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>435069.06468750001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>438315.887125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>438315.88712500001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>437566.12837500003</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>435080.6780625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>435080.67806250002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>436276.7863125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>436276.78631250001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>421692.893125</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>440506.139375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>440506.13937500003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>439652.8413125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>439652.84131250001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>436309.256125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>436309.25612500001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>435537.18281250005</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>436622.42668750003</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>449613.26306250005</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>450240.767375</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>447186.3268125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>447186.32681250002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>446260.297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>446260.29700000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>447777.7568125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>447777.75681250001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>452579.8849375</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>451471.694375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>451471.69437500002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>453632.99950000003</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>452552.2535625</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>442182.68593750003</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>441496.5738125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>441496.57381249999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>442728.08187500003</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>447710.650625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>447710.65062500001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>448385.092375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>448385.09237500001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>464740.80006250006</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>463333.04250000004</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>465609.889875</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>465609.88987499999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>469781.42375</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>469781.42375000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>484990.12031250005</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>451043.89943750005</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>450323.8991875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>450323.89918750001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>505830.44587500003</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>417659.18100000004</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>417726.2050625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>417726.20506250003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>419802.67956250004</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>419406.33512500004</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>416392.45156250003</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>416120.34650000004</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>416493.5718125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>416493.57181250001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>417765.1215625</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>417765.12156250002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>417413.9255625</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>417413.92556250002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>419374.8009375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>419374.80093750003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>418979.7540625</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>418979.75406250003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>419475.2884375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>419475.28843750001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>419364.8799375</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>419364.87993749999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>418887.8715625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>418887.87156250002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>419455.5675</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>416737.054125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>416737.05412500002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>420865.52675</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>420865.52675000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>420390.52325</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>420390.52325000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>419228.0426875</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>419228.04268750001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>419269.95225000003</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>422042.2400625</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>421565.5789375</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>421565.57893750002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>422232.2705625</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>422232.27056249999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>421770.544375</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>423489.90368750005</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>422936.56100000005</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>423666.478375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>423666.47837500001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>424885.424375</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>424267.87912500004</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>419982.457375</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>419612.3985625</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>419612.39856250002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>420952.22325000004</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>420637.0759375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>420637.07593749999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>421121.3744375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>421121.37443750002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>426865.691125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>426865.69112500001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>426157.3756875</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>428429.45762500004</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>432377.6145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>432377.61450000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>431528.3015</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>432732.28331250005</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>423495.34575000004</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>423126.60143750004</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>438182.6086875</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>437000.84756250004</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>438629.576375</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>409350.9666875</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>409350.96668750001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>409456.35962500004</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>409252.96875</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>409404.622875</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>409717.06675</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>409891.97468750004</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>410021.650875</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>410021.65087499999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>410668.1430625</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>410668.14306249999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>410526.69775</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>410526.69774999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>410674.8485</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>410674.84850000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>410902.363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>410902.36300000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>411876.31875000003</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>412045.20412500005</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>410857.4244375</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>410857.42443750001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>410664.01831250003</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>410900.81725</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>410900.81725000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>410552.06243750005</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>410398.18700000003</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>410095.43175000005</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>410476.41750000004</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>410090.63406250003</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>410122.38525</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>410122.38524999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>410601.62475</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>410601.62475000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>410393.96075</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>410393.96075000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>410605.279125</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>409982.03275</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>409982.03275000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>410097.5370625</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>410097.53706250002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>409956.95075</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>409956.95075000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>409458.3218125</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>409458.32181250001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>409732.51550000004</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>410048.802625</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>410048.80262500001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>409778.08900000004</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>410088.237</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>410088.23700000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>409488.035875</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>409180.5058125</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>409180.50581250002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>409518.242</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>409518.24200000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>410886.59181250003</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>410751.56200000003</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>409203.50075</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>409203.50075000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>408841.47506250005</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>409346.2345</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>409346.23450000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>403644.0675</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>403436.991625</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>403436.99162500002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>400193.71862500004</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>399789.602625</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>403773.462875</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>403773.46287500003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>403692.41725</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>404016.269625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>404016.26962500002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>404153.2578125</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>403966.92387500004</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>403764.82675</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>403764.82675000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>403887.197375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>403887.19737499999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>403651.727</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>403651.72700000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>403674.6935</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>403674.69349999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>403491.87425</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>403491.87424999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>408231.46175</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>408231.46175000002</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>408278.81881250005</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>408276.05575</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>402840.422375</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>402840.42237500002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>404467.04362500005</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>404398.95412500005</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>400178.805125</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>400178.80512500001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>400005.71125000005</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>401435.229875</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>401435.22987500002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>401576.19806250004</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>399783.189625</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>399687.2845</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>399687.28450000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>400468.2525</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>400649.455</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>400649.45500000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>403472.828625</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>403472.82862500002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>403322.9255</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>403322.92550000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>402010.60468750005</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>401684.42850000004</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>396307.141</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>396559.533</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>395655.8505</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>395899.05143750005</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>391371.89862500003</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>391668.290875</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>391668.29087500001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>401598.898125</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>401598.89812500001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>384987.23725</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>384987.23725000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>400819.86812500004</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>401481.609125</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>401481.60912500002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>401668.60887500003</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>401333.44587500003</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>401651.826375</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>401528.017375</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>401224.23625</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>401224.23625000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>401261.3725</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>401455.0355</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>407398.03825000004</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>407428.209125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>407428.20912499999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>399933.80425000004</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>400076.164125</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>400076.16412500001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>401848.586375</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>401848.58637500001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>401997.683375</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>401997.68337500002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>396249.9195</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>396249.91950000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>396464.28150000004</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>397871.4645</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>398057.03075000003</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>395634.58762500004</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>395911.127625</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>395911.12762500002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>395403.21</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>396418.840875</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>396418.84087499999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>395890.51875000005</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>400310.289125</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>400310.28912500001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>399854.033125</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>399854.03312500002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>398149.848125</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>398149.84812500002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>390900.574375</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>390900.57437500003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>390512.58275</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>389827.21762500005</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>390133.22887500003</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>384077.13225</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>384077.13225000002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>384465.774875</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>397437.447125</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>397437.44712500001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>397143.5735</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>376900.79287500004</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>375600.337375</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>406271.720875</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>406580.82225</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>406580.82225000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>406441.851</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>406441.85100000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>404089.2469375</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>404089.24693750002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>404474.65975</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>404474.65974999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>406364.7915</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>406364.79149999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>406218.94587500003</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>406435.2230625</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>406435.22306250001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>406698.27687500004</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>406573.4176875</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>406573.41768750001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>406597.1219375</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>406597.12193750002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>406846.2925625</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>406846.29256249999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>406694.0569375</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>406694.05693750002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>408075.1784375</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>408075.17843750003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>405367.4968125</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>407248.55312500003</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>407523.18487500004</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>407408.95975000004</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>404444.0945625</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>404444.09456250002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>405276.895375</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>405276.89537500002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>405589.50725</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>405589.50725000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>405437.353125</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>405437.35312500002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>404260.324</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>404260.32400000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>404690.15437500004</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>404494.5230625</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>405271.59725</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>405271.59724999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>405680.5795625</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>405473.22400000005</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>407723.48212500004</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>408038.79875</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
+        <v>408038.79875000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>402464.601</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
+        <v>402464.60100000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>402106.442875</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>402106.44287500001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>402371.7799375</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>402371.77993750002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>400210.67525000003</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>399857.652375</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>399857.65237500001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>406406.74950000003</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>406613.29125</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>406613.29125000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>395957.8685625</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>395957.86856249999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>418749.05225</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>418749.05225000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>419150.160875</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>422878.517875</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>422878.51787500002</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>417867.225125</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>417697.29787500005</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>418469.455625</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>420458.9415625</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>420458.94156250003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>420247.5631875</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>420734.196125</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>420734.19612500002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>418577.823625</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>418577.82362500002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>414413.6628125</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>414413.66281250003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>420623.77025</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>420936.54887500004</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>419772.653375</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>419772.65337499999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>419563.2950625</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+        <v>419563.29506249999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>423767.9135</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>423767.91350000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>423581.20200000005</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>423321.719125</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>423957.5383125</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
+        <v>423957.53831249999</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>424904.1341875</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
+        <v>424904.13418749999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>425616.43525000004</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>422737.7855</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>424818.06725</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>424818.06725000002</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>424642.4385625</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>425219.95656250004</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>429354.64268750005</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>428977.95687500003</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>429910.8715</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>429910.87150000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>431655.10225</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>431258.1385</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>437040.11825</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>436568.4774375</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
+        <v>436568.47743750003</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>437855.76825</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>437855.76825000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>426279.3856875</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
+        <v>426279.38568750001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>442889.50487500004</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>444570.839625</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>444570.83962500002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>420421.1873125</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>420421.18731250003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>420373.13168750005</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>424787.137125</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>424787.13712500001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>424692.55568750005</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>425208.112</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>425208.11200000002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>418718.59900000005</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>419519.2533125</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>419519.25331250002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>421043.51325</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>421043.51325000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>421320.4311875</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>421320.43118750001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>417792.28425</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
+        <v>417792.28425000003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>417618.36493750004</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>417980.744375</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
+        <v>417980.74437500001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>412607.865125</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
+        <v>412607.86512500001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>420218.43875000003</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>420113.155875</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>420527.358375</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
+        <v>420527.35837500001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>420548.4613125</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>420454.907</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+        <v>420454.90700000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>420801.525</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
+        <v>420801.52500000002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>424742.7425</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
+        <v>424742.74249999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>425252.85500000004</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>424446.67175000004</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>424831.87725</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
+        <v>424831.87725000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>426577.21825000003</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>426470.0036875</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
+        <v>426470.00368750002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>427827.96375</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>428379.9545</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
+        <v>428379.95449999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>425167.5654375</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>425167.56543750002</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>425148.059125</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
+        <v>425148.05912500003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>425591.0338125</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>425591.03381250001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>427177.2053125</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>427177.20531250001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>427618.5438125</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
+        <v>427618.54381250002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>431056.2583125</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
+        <v>431056.25831250002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>430916.49725</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>430916.49725000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>439593.313375</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
+        <v>439593.31337500003</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>446830.2886875</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>446463.1474375</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>446463.14743750001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>447826.18575</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>426535.07575</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
+        <v>426535.07575000002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>426755.81918750005</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>433442.00225</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
+        <v>433442.00225000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>433847.89275</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>424474.15900000004</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>424695.3870625</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>425435.4223125</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>425435.42231250001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>426126.7103125</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>426126.71031250001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>428373.37200000003</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>428654.08875</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>426697.4215</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>426078.3978125</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
+        <v>426078.39781250001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>426893.54031250003</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>418653.338</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
+        <v>418653.33799999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>429700.29643750004</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>429098.9685625</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
+        <v>429098.96856250003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>430031.40175</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
+        <v>430031.40175000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>427355.14831250004</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>427546.59218750003</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>434422.1873125</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
+        <v>434422.18731250003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>434108.36475</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
+        <v>434108.36475000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>437409.09575000004</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>437825.55425000004</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>438732.35212500003</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>437967.846375</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
+        <v>437967.84637500002</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>439159.5510625</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
+        <v>439159.55106249999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>431290.6810625</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
+        <v>431290.68106249999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>431652.88950000005</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>434303.90293750004</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>433860.4055625</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>434759.04712500004</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>444957.288875</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>444957.28887500003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>445529.1271875</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
+        <v>445529.12718750001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>448628.2148125</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
+        <v>448628.21481249999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>449255.091375</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>449255.09137500002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>457837.4826875</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
+        <v>457837.48268750001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>456683.74137500004</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>458733.5299375</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
+        <v>458733.52993750002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>436685.09025</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
+        <v>436685.09025000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>436211.7990625</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
+        <v>436211.79906250001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>437160.0855625</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>471478.6005</v>
       </c>
@@ -2467,14 +2493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26ACB19-3AD7-481F-A11D-7CA4FEB3D50B}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>24747.14156249999</v>
       </c>
@@ -2562,7 +2588,7 @@
         <v>53563.806562500045</v>
       </c>
       <c r="E2">
-        <v>4181.298749999998</v>
+        <v>4181.2987499999981</v>
       </c>
       <c r="F2">
         <v>26656.723199999986</v>
@@ -2574,22 +2600,22 @@
         <v>11942.788950000002</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>28253.29072500001</v>
       </c>
       <c r="K2">
-        <v>5639.683874999999</v>
+        <v>5639.6838749999988</v>
       </c>
       <c r="L2">
-        <v>15749.94645</v>
+        <v>15749.946449999999</v>
       </c>
       <c r="M2">
-        <v>70338.61499999999</v>
+        <v>70338.614999999991</v>
       </c>
       <c r="N2">
-        <v>42316.160175</v>
+        <v>42316.160174999997</v>
       </c>
       <c r="O2">
         <v>14649.407325</v>
@@ -2601,10 +2627,10 @@
         <v>17921.565900000005</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9317.3949</v>
+        <v>9317.3948999999993</v>
       </c>
       <c r="T2">
         <v>11254.551825000004</v>
@@ -2613,13 +2639,13 @@
         <v>32294.78355</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>8880.043424999996</v>
+        <v>8880.0434249999962</v>
       </c>
       <c r="X2">
-        <v>6272.5077</v>
+        <v>6272.5077000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2628,134 +2654,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9576AC40-2A3E-46FC-8432-870DC9AE9883}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>27278.061937499988</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>25110.88571250001</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3">
+        <v>613853.96369999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>23586.666450000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>24356.741925000046</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5">
+        <v>612365.24470000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24898.277767499996</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>29101.518022499986</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="C7" s="1">
+        <f>(C3-C5)/C3</f>
+        <v>2.4252005982443813E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>33111.976402500004</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>37274.3683575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>37274.368357500003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>35035.659224999996</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>26981.61664125001</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>19636.1168175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>19636.116817499998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>15837.00673875</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>15551.771774999987</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15916.737075000005</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15945.589342500001</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15984.462206249997</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>18778.118036250005</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>23343.13511249999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>23343.135112499989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>28144.194187499997</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>31645.623367500004</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>33643.8521175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>33643.852117499999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>33557.588099999986</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>30367.101528749994</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>28766.894850000004</v>
       </c>
